--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1056,6 +1056,1680 @@
         </is>
       </c>
     </row>
+    <row r="11" customHeight="true" ht="20.0">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>20250314_111920_1</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(80g), 青木瓜(184g), 肉鬆麵包(29g), 小白菜(有機)(1月取樣)(104g), 蛇肉(81g), 稉米(高雄142號)(80g), 油炸脫水甘藷(36g)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (779/703)</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1.34 (121.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (27.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (20.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (399/350)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (951/1225)</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (371/700)</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (117/108)</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62.2%</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14.3%</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23.5%</t>
+        </is>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" customHeight="true" ht="20.0">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>20250314_111920_2</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>翡翠李(130g), 全脂鮮乳(10月取樣)(136g), 豬下肩肉(89g), 稉米(高雄142號)(108g), 奶油萵苣(日本種)(155g)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (728/703)</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1.21 (109.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (30.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (18.9/23.2)</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (225/350)</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (1288/1225)</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0.15 (102/700)</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (81/108)</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23.3%</t>
+        </is>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" customHeight="true" ht="20.0">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>20250314_111920_3</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>羊羹(57g), 全脂鮮乳(11月取樣)(118g), 糙秈米漿(80g), 向陽二號胡蘿蔔(125g), 大西洋鮭魚(台灣養殖)(54g), 棉花糖(45g), 鵝蛋(60g)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (691/703)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (103.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (27.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (18.7/23.2)</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (207/350)</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (668/1225)</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.47 (326/700)</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (67/108)</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15.6%</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24.4%</t>
+        </is>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" customHeight="true" ht="20.0">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121010_1</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>牛前胸肉(50g), 稉型糯米平均值(89g), 鵪鶉蛋(35g), 灰海荷蝹(45g), 馬鈴薯(2022年取樣)(43g), 鶯哥桃(132g), 日本茼蒿(有機)(100g)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (699/703)</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (94.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (32.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (21.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (381/350)</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (995/1225)</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (578/700)</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (124/108)</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54.0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18.8%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27.2%</t>
+        </is>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" customHeight="true" ht="20.0">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121010_2</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>稉型糯米(台稉糯1號)(95g), 牛前胸肉(50g), 灰海荷蝹(36g), 馬鈴薯(2022年取樣)(38g), 鶯哥桃(104g), 日本茼蒿(有機)(100g)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (660/703)</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (98.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (28.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (16.9/23.2)</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (363/350)</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (930/1225)</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (529/700)</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (124/108)</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>59.4%</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17.5%</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23.1%</t>
+        </is>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" customHeight="true" ht="20.0">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121010_3</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>脫脂濃稠發酵乳(低熱量)(100g), 稉型糯米(台稉糯1號)(95g), 脫脂濃稠發酵乳(草莓)(100g), 灰海荷蝹(47g), 大番茄平均值(綠色系)(121g), 鯖魚(炒)(29g), 馬鈴薯(2022年取樣)(43g), 香菇平均值(52g)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (680/703)</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (110.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (30.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (13.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (401/350)</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (943/1225)</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (439/700)</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (105/108)</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>64.7%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17.8%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>17.5%</t>
+        </is>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" customHeight="true" ht="20.0">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121024_1</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>粉豆莢(56g), 胚芽稉米(台稉9號)(82g), 雞滷蛋黃(浸泡隔夜)(38g), 紫甘藍芽(100g), 毛鱗魚(25g), 芋莖(209g), 海帶梗(57g)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (700/703)</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (101.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (25.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (21.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (291/350)</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (1260/1225)</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (554/700)</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (147/108)</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>58.0%</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14.3%</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27.7%</t>
+        </is>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" customHeight="true" ht="20.0">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121024_2</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(80g), 粉豆莢(56g), 甜蜜桃(206g), 赤鰭笛鯛(28g), 毛鱗魚(25g), 牛軋糖(26g), 芋莖(209g), 蘿蔔葉(100g), 海帶梗(57g)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (501/703)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (67.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (21.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (16.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (365/350)</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1.61 (1976/1225)</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (487/700)</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1.39 (151/108)</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>53.8%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29.2%</t>
+        </is>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" customHeight="true" ht="20.0">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121024_3</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(117g), 雞滷蛋黃(浸泡隔夜)(29g), 香瓜茄(100g), 豬肩骨湯(85g), 菱角(生)(40g), 白飯(133g), 山芹菜(120g)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (616/703)</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (98.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (19.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (16.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (278/350)</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.47 (1806/1225)</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.46 (324/700)</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (139/108)</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>63.6%</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>23.6%</t>
+        </is>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" customHeight="true" ht="20.0">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121028_1</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>全脂鮮乳(1月取樣)(129g), 紫玉米(83g), 蒲瓜(長形)(172g), 芋頭(40g), 雞蛋(白殼)(38g), 骨腿(肉雞)(62g), 青江菜(土植)(1月取樣)(100g), 清腿(肉雞)(53g)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (578/703)</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (55.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (33.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (24.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (304/350)</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (1247/1225)</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0.41 (286/700)</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (80/108)</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>38.4%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>38.6%</t>
+        </is>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" customHeight="true" ht="20.0">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121028_2</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>日本花鱸((12月)(62g), 肉鬆麵包(43g), 金針菇(83g), 柳松菇(50g), 紫玉米(83g), 芋頭(40g), 大西洋鮭魚生魚片(28g), 青江菜(土植)(1月取樣)(100g), 清腿(肉雞)(53g)</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (648/703)</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (70.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (40.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (23.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (125/350)</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1.27 (1557/1225)</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (369/700)</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (99/108)</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>43.4%</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>24.7%</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>31.9%</t>
+        </is>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" customHeight="true" ht="20.0">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121028_3</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(100g), 蒲瓜(長形)(154g), 安石榴(126g), 雞蛋白(黃殼)(69g), 高筋麵粉(2021年取樣)(84g), 柳松菇(50g), 大西洋鮭魚生魚片(28g), 青江菜(土植)(1月取樣)(100g), 清腿(肉雞)(53g)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (779/703)</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (102.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1.40 (46.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (20.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (364/350)</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (1454/1225)</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (485/700)</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (132/108)</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>52.8%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>23.8%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>23.4%</t>
+        </is>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" customHeight="true" ht="20.0">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121031_1</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(100g), 香芋冬瓜(183g), 竹蟶(冷凍)(36g), 鴕腩肉(64g), 白玉米(90g), 冷凍麻竹筍(168g), 甘藍(圓球形)(2021年取樣)(118g), 雙色水果玉米(80g), 芋頭粉(50g), 萊姆汁(111g)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (687/703)</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (100.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (35.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (16.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (368/350)</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1.42 (1738/1225)</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (496/700)</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1.53 (165/108)</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>58.4%</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>20.5%</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" customHeight="true" ht="20.0">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121031_2</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>山藥平均值(41g), 綿羊腹脅肉火鍋片(95g), 紅蝦仁(25g), 葛仙米藻(42g), 木耳(69g), 甘藍(圓球形)(2021年取樣)(118g), 黃秋葵(106g), 雙色水果玉米(80g), 鴨蛋黃(36g)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (619/703)</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (48.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (33.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1.40 (32.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (323/350)</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (1208/1225)</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0.45 (317/700)</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1.46 (158/108)</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>31.3%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>47.2%</t>
+        </is>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" customHeight="true" ht="20.0">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>20250314_121031_3</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(125g), 鮸魚卵(加工)(55g), 花菇(56g), 仿刺參(45g), 白玉米(80g), 黃鰭棘鯛(48g)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (442/703)</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0.32 (29.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (37.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (355/350)</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (1051/1225)</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (378/700)</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (116/108)</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>26.4%</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>34.2%</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>39.4%</t>
+        </is>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" customHeight="true" ht="20.0">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>20250314_122514_1</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>去骨牛小排(53g), 雞滷蛋(市售)(47g), 李子平均值(紅皮紅肉)(133g), 小白菜(有機)(10月取樣)(137g), 全脂鮮乳(10月取樣)(100g), 發芽稉米平均值(86g)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (682/703)</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (86.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (28.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (24.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (360/350)</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (1088/1225)</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (375/700)</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (147/108)</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>50.9%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>16.8%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>32.2%</t>
+        </is>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" customHeight="true" ht="20.0">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>20250314_122514_2</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>去骨牛小排(53g), 雜糧高筋麵粉(80g), 冷藏廣式蘿蔔糕(31g), 翠玉白菜(166g), 灰海荷蝹(46g), 真烏賊(小)(61g)</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (601/703)</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (70.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (39.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (18.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (350/350)</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (628/1225)</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (536/700)</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (116/108)</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>47.1%</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>25.9%</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>27.0%</t>
+        </is>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" customHeight="true" ht="20.0">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>20250314_122514_3</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>豬白管(85g), 包心白菜(130g), 全脂鮮乳(10月取樣)(100g), 干貝(冷凍)(29g), 帶膜花生仁(生)(1995年之前取樣)(29g), 真烏賊(小)(61g), 越光米(台南16號)(2024年取樣)(93g)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (716/703)</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (93.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1.26 (42.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (230/350)</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (835/1225)</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (423/700)</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (125/108)</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>52.2%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>23.5%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>24.3%</t>
+        </is>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2730,6 +2730,1401 @@
         </is>
       </c>
     </row>
+    <row r="29" customHeight="true" ht="20.0">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>20250314_144521_1</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>香芋冬瓜(132g), 豬前腳(79g), 白玉米(80g), 白菜芽(178g), 豬腎(50g), 魚酥(32g), 雙色水果玉米(117g), 紅番茄(109g)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (733/703)</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (74.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (39.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1.32 (30.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (235/350)</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1.39 (1704/1225)</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (413/700)</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (126/108)</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>40.6%</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>21.8%</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>37.6%</t>
+        </is>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" customHeight="true" ht="20.0">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>20250314_144521_2</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉2號)(109g), 青江菜(有機)(4月取樣)(240g), 雞滷蛋黃(現煮)(52g), 抱子芥菜(105g)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (642/703)</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (96.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (22.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (18.7/23.2)</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (452/350)</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (1085/1225)</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (395/700)</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (91/108)</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>60.1%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>13.7%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>26.2%</t>
+        </is>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" customHeight="true" ht="20.0">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>20250314_144521_3</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>全脂鮮乳(1月取樣)(100g), 粉豆莢(57g), 小白菜(有機)(4月取樣)(100g), 秈米粉(102g), 雞滷蛋黃(浸泡隔夜)(44g), 鮑魚(52g), 紅番茄(109g)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (700/703)</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (105.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (26.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (19.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (350/350)</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (1056/1225)</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (565/700)</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>1.43 (155/108)</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>60.5%</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>15.0%</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" customHeight="true" ht="20.0">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>20250314_153736_1</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>胡蘿蔔(105g), 雜糧高筋麵粉(84g), 正櫻蝦(熟)(57g), 鴨蛋(55g), 文蛤(35g), 甜椒(青皮)(114g), 乳酪蛋糕(43g)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (669/703)</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (82.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (38.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (21.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1.48 (518/350)</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (926/1225)</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (667/700)</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1.44 (156/108)</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>49.1%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22.7%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>28.2%</t>
+        </is>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" customHeight="true" ht="20.0">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>20250314_153736_2</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(96g), 正櫻蝦(熟)(57g), 菲律賓簾蛤(28g), 文蛤(35g), 去骨紐約克牛排(57g), 迷你竹筍白菜(159g)</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (477/703)</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0.45 (40.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (35.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1.43 (501/350)</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (1189/1225)</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (614/700)</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1.34 (145/108)</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>34.1%</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>29.3%</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>36.5%</t>
+        </is>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" customHeight="true" ht="20.0">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>20250314_153736_3</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>鴨蛋(40g), 全脂鮮乳(6月取樣)(100g), 酪梨(室溫存放3天)(102g), 青花菜筍(116g), 車輪餅(紅豆)(42g), 秈米粉(87g), 小白菜(土植)(3月取樣)(144g), 魩仔魚(加工)(25g)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (723/703)</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (111.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (26.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (19.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1.42 (496/350)</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (1507/1225)</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (603/700)</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>1.41 (152/108)</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>61.6%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>23.7%</t>
+        </is>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" customHeight="true" ht="20.0">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>20250314_154601_1</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 蜜棗平均值(大)(134g), 甘薯蜜餞(26g), 眼斑擬石首魚(52g), 白玉米(85g), 生核桃(31g), 灰海荷蝹(52g)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (615/703)</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (64.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (33.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (25.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (347/350)</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (1045/1225)</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (455/700)</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>1.47 (159/108)</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>41.7%</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>36.8%</t>
+        </is>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" customHeight="true" ht="20.0">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>20250314_154601_2</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 青木瓜(110g), 甘藷葉(100g), 綿羊腹脅肉火鍋片(53g), 雞蛋(高亞麻油酸)(33g), 白玉米(85g), 中脂調味乳(維生素強化)(100g), 珊瑚菇(55g), 豐水梨(117g), 鴨皮蛋(58g), 豆漿(無糖)(53g)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (638/703)</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (63.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (37.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (26.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (254/350)</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>1.46 (1783/1225)</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (522/700)</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>1.56 (169/108)</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>39.9%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>23.3%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>36.8%</t>
+        </is>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" customHeight="true" ht="20.0">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>20250314_154601_3</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 北方長額蝦(加工)(50g), 雞滷蛋黃(現煮)(25g), 魚翅唇(40g), 金冠蘋果(206g), 生核桃(31g), 珊瑚菇(50g), 豆漿(無糖)(53g), 中脂鮮乳(103g)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (706/703)</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (59.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (33.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>1.60 (37.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (250/350)</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (1204/1225)</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (487/700)</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>1.52 (165/108)</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>33.6%</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>19.1%</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>47.3%</t>
+        </is>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" customHeight="true" ht="20.0">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>20250314_162635_1</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 鯔(11月,雌魚)(27g), 敏豆莢(57g), 鳳梨酥(34g), 白玉米(80g), 鴨舌(52g), 土雞蛋(2022年取樣)(28g), 螳螂蝦(25g), 楊桃(11月取樣)(168g)</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (619/703)</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (69.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (30.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (24.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (407/350)</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (1091/1225)</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>0.31 (213/700)</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (116/108)</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>44.7%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>35.4%</t>
+        </is>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" customHeight="true" ht="20.0">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>20250314_162635_2</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>桑葚汁(102g), 金冠蘋果(183g), 白玉米(80g), 滷蛋平均值(49g), 鴨舌(52g), 糯玉米(97g), 青花菜(2021年取樣)(170g)</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (603/703)</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (84.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (31.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (15.7/23.2)</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>1.27 (443/350)</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (1510/1225)</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (623/700)</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (146/108)</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>56.1%</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>20.5%</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>23.4%</t>
+        </is>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" customHeight="true" ht="20.0">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>20250314_162635_3</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>胚芽稉米(台稉9號)(85g), 敏豆莢(57g), 白玉米(80g), 虱目魚平均值(去皮)(45g), 蕹菜(土植)(10月取樣)(127g), 波紋橫簾蛤(27g), 鴨鹹蛋黃(35g), 檸檬愛玉凍(28g)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (692/703)</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (86.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (34.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (23.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (202/350)</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (966/1225)</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (429/700)</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>1.33 (143/108)</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>49.7%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>30.5%</t>
+        </is>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" customHeight="true" ht="20.0">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>20250314_162900_1</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>中脂鮮羊乳(136g), 芫荽(142g), 秈米平均值(99g), 鴨腿(62g), 波紋橫簾蛤(40g), 雞皮蛋(47g)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (726/703)</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (94.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (33.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (24.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (238/350)</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (977/1225)</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (542/700)</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (102/108)</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>51.7%</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>18.3%</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>29.9%</t>
+        </is>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" customHeight="true" ht="20.0">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>20250314_162900_2</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>全脂鮮乳(1月取樣)(140g), 雞蛋黃平均值(30g), 燕麥片(80g), 仙草凍(2020取樣)(32g), 黑李(125g), 雞皮蛋(41g)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (683/703)</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (85.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (26.5/33.3)</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (26.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (314/350)</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (851/1225)</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (395/700)</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (125/108)</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>49.8%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>15.5%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" customHeight="true" ht="20.0">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>20250314_162900_3</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>玫瑰菇(61g), 海綿蛋糕(圓形)(29g), 仙草凍(2020取樣)(32g), 青蘿蔔(104g), 鯔(含皮)(36g), 全脂鮮乳(7月取樣)(100g), 豬骨湯平均值(73g), 青江菜(水耕)(4月取樣)(144g), 番石榴(珍珠拔)(有機)(100g), 荷包蛋(不加油)(32g), 雙色水果玉米(98g), 綠番茄(172g)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (562/703)</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (68.6/90.3)</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (29.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (18.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (381/350)</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>1.87 (2287/1225)</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>0.33 (228/700)</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>1.63 (176/108)</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>48.8%</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>30.1%</t>
+        </is>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4125,6 +4125,2238 @@
         </is>
       </c>
     </row>
+    <row r="44" customHeight="true" ht="20.0">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>20250314_171604_1</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>紫色甘藍(109g), 鯔(8月)(39g), 稉米(高雄139號)(98g), 冷藏廣式蘿蔔糕(25g), 白對蝦(小)(64g), 蕹菜(水耕)(1月取樣)(100g), 豆干片(沙茶)(28g)</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (708/703)</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (103.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (35.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (17.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (288/350)</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (1373/1225)</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (428/700)</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>1.33 (143/108)</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>58.2%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>20.2%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" customHeight="true" ht="20.0">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>20250314_171604_2</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>翡翠李(113g), 雞蛋黃平均值(69g), 中脂凝態發酵乳(草莓)(100g), 白玉米(80g), 茶葉蛋白(浸泡隔夜)(74g), 全脂濃稠發酵乳(136g), 楊桃(11月取樣)(168g)</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (677/703)</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (73.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (34.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (27.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (349/350)</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (1195/1225)</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (591/700)</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (86/108)</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>20.3%</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>36.2%</t>
+        </is>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" customHeight="true" ht="20.0">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>20250314_171604_3</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>翡翠李(113g), 雞蛋黃平均值(69g), 中脂凝態發酵乳(草莓)(100g), 白玉米(80g), 茶葉蛋白(浸泡隔夜)(74g), 全脂濃稠發酵乳(121g), 楊桃(11月取樣)(145g)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (651/703)</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (69.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (33.5/33.3)</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (26.7/23.2)</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (333/350)</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (1120/1225)</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (582/700)</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (82/108)</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>42.6%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>20.6%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>36.8%</t>
+        </is>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" customHeight="true" ht="20.0">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>20250314_172829_1</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 星斑真鯧(38g), 綠蘆筍(短型)(177g), 高脂強化鮮乳(寡醣強化)(237g), 海帶茸(26g), 龍骨瓣莕菜(133g)</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (486/703)</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (45.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (27.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (21.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (293/350)</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>1.37 (1674/1225)</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (366/700)</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (128/108)</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>37.6%</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>22.5%</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>39.9%</t>
+        </is>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" customHeight="true" ht="20.0">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>20250314_172829_2</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 蒸蛋(微波爐)(28g), 綠蘆筍(短型)(177g), 魚酥(25g), 山藥(台農2號)(37g), 高脂強化鮮乳(寡醣強化)(237g), 海帶茸(26g)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (506/703)</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (53.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (21.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (22.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (292/350)</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (1321/1225)</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (365/700)</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (100/108)</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>42.4%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>17.2%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>40.4%</t>
+        </is>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" customHeight="true" ht="20.0">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>20250314_172829_3</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(195g), 胚芽稉米(台稉9號)(87g), 綠豆芽(100g)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (604/703)</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (88.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (22.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (17.7/23.2)</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>1.43 (501/350)</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (825/1225)</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (382/700)</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (113/108)</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>58.5%</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>15.2%</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>26.3%</t>
+        </is>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" customHeight="true" ht="20.0">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>20250314_172839_1</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(99g), 脫脂凝態發酵乳(纖維強化)(160g), 鞍帶石斑魚片(51g), 雙色水果玉米(80g), 糯玉米(80g), 車輪餅(菜脯)(51g), 泡芙(巧克力)(27g), 黑斑海緋鯉(35g)</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (784/703)</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (106.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (33.5/33.3)</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (25.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (325/350)</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (1229/1225)</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (467/700)</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>1.38 (150/108)</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>54.1%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>17.1%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" customHeight="true" ht="20.0">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>20250314_172839_2</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>中脂調味保久乳(布丁)(187g), 鵝腸(79g), 毛鱗魚(47g), 栗子(生)(31g), 燕麥(80g)</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (687/703)</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (99.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (29.5/33.3)</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (303/350)</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (777/1225)</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (363/700)</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>1.45 (157/108)</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>57.6%</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>17.2%</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" customHeight="true" ht="20.0">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>20250314_172839_3</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>中脂濃稠發酵乳(無糖&amp;纖維強化)(128g), 甘藷粉(26g), 糙秈米漿(84g), 雙色水果玉米(80g), 車輪餅(菜脯)(51g), 泡芙(巧克力)(27g), 黑斑海緋鯉(35g), 低脂鮮乳(278g)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (731/703)</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (101.6/90.3)</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (26.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (24.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>1.39 (486/350)</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (1128/1225)</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (450/700)</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (110/108)</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>55.5%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>29.8%</t>
+        </is>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" customHeight="true" ht="20.0">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>20250314_174557_1</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>雞皮蛋平均值(56g), 高脂保久乳(121g), 中脂調味乳(鈣強化)(186g), 鮑魚菇(65g), 紅糯糙米(90g)</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (625/703)</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (90.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (25.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (18.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (309/350)</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (1020/1225)</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (493/700)</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>1.49 (162/108)</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>57.8%</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>16.0%</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>26.2%</t>
+        </is>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" customHeight="true" ht="20.0">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>20250314_174557_2</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>豬小里肌(63g), 鮑魚菇(65g), 敏豆莢(72g), 秈米(台中在來2號)(84g), 綠蘆筍(237g), 綠蘆筍(短型)(104g), 小白菜(土植)(1月取樣)(236g), 牛小排平均值(89g)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (814/703)</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (87.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>1.37 (45.5/33.3)</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (31.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (313/350)</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>1.60 (1959/1225)</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (367/700)</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>1.51 (163/108)</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>43.1%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>22.3%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" customHeight="true" ht="20.0">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>20250314_174557_3</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>高脂保久乳(121g), 甜玉米(81g), 糯小米(80g), 全脂鮮乳(7月取樣)(170g), 無花果(112g), 雙色水果玉米(82g)</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (736/703)</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (116.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (26.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (18.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (404/350)</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (1269/1225)</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>0.15 (105/700)</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (139/108)</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>63.2%</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>14.4%</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>22.3%</t>
+        </is>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" customHeight="true" ht="20.0">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>20250314_175335_1</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(80g), 高山大豌豆莢(73g), 蜂蜜蛋糕(巧克力)(42g), 鮮奶可可(100g), 糯玉米(80g), 高脂強化鮮乳(寡醣強化)(149g), 魩仔魚(加工,大)(39g)</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (676/703)</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (89.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (25.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (23.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (357/350)</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (1068/1225)</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (498/700)</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>1.85 (200/108)</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>53.0%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>15.3%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>31.7%</t>
+        </is>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" customHeight="true" ht="20.0">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>20250314_175335_2</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(80g), 刺鯧(含皮)(36g), 大麥仁粉(80g), 芥藍芽(138g), 高脂強化鮮乳(寡醣強化)(123g)</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (683/703)</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (101.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (25.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (19.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (217/350)</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (1109/1225)</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>0.27 (191/700)</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>1.43 (154/108)</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>59.2%</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>15.0%</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>25.8%</t>
+        </is>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" customHeight="true" ht="20.0">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>20250314_175335_3</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>鮮奶可可(100g), 蓮花芒果(159g), 即食燕麥片(80g), 全脂凝態發酵乳(100g), 鴨翅(65g)</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (689/703)</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (98.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (30.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (255/350)</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (844/1225)</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0.22 (152/700)</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>1.44 (156/108)</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>57.4%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>17.5%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>25.1%</t>
+        </is>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" customHeight="true" ht="20.0">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>20250314_180241_1</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>花生糖(41g), 糙秈米漿(80g), 台灣鯛魚片(生)(38g), 中脂強化鮮乳(脂肪酸調整)(180g), 花尾唇指翁(翁加魚邊)(59g), 水蜜桃(104g), 根菾菜根(2023年取樣)(100g)</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (588/703)</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (62.6/90.3)</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (32.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (23.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>0.40 (140/350)</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (1200/1225)</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (367/700)</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (132/108)</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>42.5%</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>22.0%</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>35.5%</t>
+        </is>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" customHeight="true" ht="20.0">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>20250314_180241_2</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(80g), 高脂強化鮮乳(鈣強化)(178g), 大麥片(81g), 雞鐵蛋(27g)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (594/703)</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (84.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (24.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (17.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (473/350)</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (637/1225)</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (380/700)</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (87/108)</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>56.9%</t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>16.2%</t>
+        </is>
+      </c>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>26.9%</t>
+        </is>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P60" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" customHeight="true" ht="20.0">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>20250314_180241_3</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>厥子(100g), 糙秈米漿(80g), 蜂蜜蛋糕(原味)(37g), 高脂強化鮮乳(鈣強化)(146g), 鴨熟鹹蛋(薄鹽)(41g), 糙稉米平均值(80g)</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (713/703)</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (106.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (23.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (21.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>1.26 (442/350)</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (891/1225)</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (639/700)</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>1.33 (144/108)</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>59.6%</t>
+        </is>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>12.9%</t>
+        </is>
+      </c>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>27.5%</t>
+        </is>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P61" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" customHeight="true" ht="20.0">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>20250314_181739_1</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(100g), 薏仁粉(97g), 芹菜(100g), 黃姑魚(56g), 傳統豆花(未加糖)(33g), 乳酪蛋糕(29g)</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (693/703)</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (96.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (33.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (19.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (475/350)</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (1118/1225)</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (380/700)</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>1.24 (134/108)</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>55.8%</t>
+        </is>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>19.4%</t>
+        </is>
+      </c>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t>24.9%</t>
+        </is>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P62" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" customHeight="true" ht="20.0">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>20250314_181739_2</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>野生紅米(99g), 山藥平均值(52g), 豆瓣菜(151g), 傳統豆花(未加糖)(33g), 砂糖橘(138g), 鴨鹹蛋平均值(25g), 法式羊排(50g)</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (692/703)</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (106.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (27.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (17.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (365/350)</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (1474/1225)</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (541/700)</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>1.70 (183/108)</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>61.4%</t>
+        </is>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>15.7%</t>
+        </is>
+      </c>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>22.9%</t>
+        </is>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" customHeight="true" ht="20.0">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>20250314_181739_3</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>茶葉蛋黃(浸泡隔夜)(29g), 豆瓣菜(100g), 日本龍蝦(54g), 泡魷魚(63g), 大麥片(85g)</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (546/703)</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (71.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (36.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (12.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (184/350)</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (904/1225)</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (451/700)</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (116/108)</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>27.1%</t>
+        </is>
+      </c>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>20.3%</t>
+        </is>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" customHeight="true" ht="20.0">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>20250314_182214_1</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(112g), 雙色水果玉米(80g), 中脂保久乳(114g), 白玉米(80g), 燕麥(80g)</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (715/703)</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (96.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (27.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (24.7/23.2)</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>1.27 (445/350)</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (1252/1225)</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>0.48 (336/700)</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>1.76 (190/108)</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>53.7%</t>
+        </is>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>15.2%</t>
+        </is>
+      </c>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t>31.1%</t>
+        </is>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P65" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" customHeight="true" ht="20.0">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>20250314_182214_2</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(100g), 木薯粉(25g), 鯖魚(烤,180度,10分)(25g), 蕹菜(土植)(7月取樣)(139g), 金時甘藷(34g), 白玉米(84g)</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (490/703)</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (60.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (19.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (19.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (339/350)</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (1026/1225)</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (396/700)</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (91/108)</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>49.2%</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>15.8%</t>
+        </is>
+      </c>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t>34.9%</t>
+        </is>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R66" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" customHeight="true" ht="20.0">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>20250314_182214_3</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(135g), 蕹菜(土植)(7月取樣)(169g), 白蘆筍(100g), 糙稉米(台稉71號)(80g), 蒸蛋(市售)(39g)</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (547/703)</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (82.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (22.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (14.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (413/350)</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (1120/1225)</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (550/700)</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>1.47 (159/108)</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>23.6%</t>
+        </is>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6357,6 +6357,4191 @@
         </is>
       </c>
     </row>
+    <row r="68" customHeight="true" ht="20.0">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>20250315_121850_1</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>鴕腩肉(81g), 棒棒腿(土雞)(61g), 白皮蛇瓜(107g), 雙色水果玉米(97g), 蕹菜(土植)(1月取樣)(100g), 高脂強化鮮乳(寡醣強化)(210g)</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (573/703)</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (45.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>1.39 (46.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (23.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (305/350)</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (1436/1225)</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (475/700)</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>1.37 (148/108)</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>31.4%</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>32.1%</t>
+        </is>
+      </c>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>36.5%</t>
+        </is>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P68" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" customHeight="true" ht="20.0">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>20250315_121850_2</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>大麥仁(84g), 淡煉乳(183g), 低脂強化鮮乳(維生素E強化)(215g)</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (638/703)</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (90.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (25.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>1.87 (655/350)</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (1086/1225)</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (445/700)</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (121/108)</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>56.7%</t>
+        </is>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>16.0%</t>
+        </is>
+      </c>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>27.3%</t>
+        </is>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P69" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" customHeight="true" ht="20.0">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>20250315_121850_3</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>豆干丁(五香)(34g), 舞菇(70g), 雙色水果玉米(97g), 蕹菜(土植)(1月取樣)(100g), 白玉米(88g), 高脂強化鮮乳(寡醣強化)(210g)</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (482/703)</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (52.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (27.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (18.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (459/350)</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (1095/1225)</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (599/700)</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (146/108)</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>43.1%</t>
+        </is>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
+        <is>
+          <t>23.0%</t>
+        </is>
+      </c>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t>33.9%</t>
+        </is>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P70" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R70" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" customHeight="true" ht="20.0">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>20250315_125552_1</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 苜蓿芽(167g), 糙秈米漿(98g), 魚漿(旗魚)(50g), 義大利茼蒿(106g), 烤布丁(48g), 牛筋(100g)</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (498/703)</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (45.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (42.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (16.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (225/350)</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>1.24 (1524/1225)</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (596/700)</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>1.47 (159/108)</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>36.5%</t>
+        </is>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>34.5%</t>
+        </is>
+      </c>
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t>29.0%</t>
+        </is>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P71" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" customHeight="true" ht="20.0">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>20250315_125552_2</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 青江菜(有機)(7月取樣)(135g), 魚漿(旗魚)(50g), 義大利茼蒿(136g), 鵪鶉蛋(51g), 烤布丁(48g), 香菇平均值(88g)</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (427/703)</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>0.49 (44.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (30.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (14.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (385/350)</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>1.41 (1729/1225)</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (612/700)</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (129/108)</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>41.7%</t>
+        </is>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
+        <is>
+          <t>28.3%</t>
+        </is>
+      </c>
+      <c r="M72" s="2" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P72" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" customHeight="true" ht="20.0">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>20250315_125552_3</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(80g), 白蘆筍(164g), 梨山蜜梨(154g), 環文蛤(60g), 雞尾椎(52g), 馬齒莧(103g), 中脂濃稠發酵乳(草莓)(101g)</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (587/703)</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (59.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (20.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (29.9/23.2)</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (257/350)</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (1216/1225)</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (625/700)</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>1.38 (149/108)</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>40.3%</t>
+        </is>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
+        <is>
+          <t>13.8%</t>
+        </is>
+      </c>
+      <c r="M73" s="2" t="inlineStr">
+        <is>
+          <t>45.9%</t>
+        </is>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P73" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q73" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="R73" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S73" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" customHeight="true" ht="20.0">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>20250315_130148_1</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>中脂濃稠發酵乳(無糖&amp;纖維強化)(207g), 冷凍玉米粒(80g), 中脂保久乳(146g), 全脂凝態發酵乳(188g), 龍骨瓣莕菜(120g), 鱗網帶鰆切片(42g)</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (681/703)</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (75.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (28.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>1.27 (29.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>1.54 (540/350)</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (1435/1225)</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (457/700)</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (98/108)</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>44.5%</t>
+        </is>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
+        <is>
+          <t>16.5%</t>
+        </is>
+      </c>
+      <c r="M74" s="2" t="inlineStr">
+        <is>
+          <t>39.0%</t>
+        </is>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P74" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q74" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R74" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S74" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" customHeight="true" ht="20.0">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>20250315_130148_2</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>中脂濃稠發酵乳(無糖&amp;纖維強化)(207g), 青梅(胭脂梅)(136g), 越光米(104g), 鵲豆莢(50g), 龍骨瓣莕菜(120g), 鱗網帶鰆切片(42g)</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (703/703)</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>1.28 (116.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (25.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (15.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (265/350)</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (1211/1225)</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>0.35 (248/700)</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (87/108)</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>66.0%</t>
+        </is>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>14.2%</t>
+        </is>
+      </c>
+      <c r="M75" s="2" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P75" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R75" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" customHeight="true" ht="20.0">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>20250315_130148_3</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>豆干丁(五香)(27g), 青蔥平均值(117g), 紅肉李(小)(100g), 天香洋香瓜(100g), 芹菜(青梗)(141g), 白飯(90g), 全脂凝態發酵乳(119g)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (529/703)</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (90.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (20.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>0.42 (9.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (474/350)</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (1396/1225)</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (425/700)</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (98/108)</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>68.2%</t>
+        </is>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>15.2%</t>
+        </is>
+      </c>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>16.6%</t>
+        </is>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R76" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" customHeight="true" ht="20.0">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>20250315_131931_1</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>全脂鮮乳(6月取樣)(148g), 大頭蝦仁(44g), 即食燕麥片(80g), 高脂凝態發酵乳(纖維強化)(133g)</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (603/703)</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (81.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (24.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (20.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (378/350)</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (767/1225)</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (468/700)</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>1.32 (143/108)</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>54.0%</t>
+        </is>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>16.0%</t>
+        </is>
+      </c>
+      <c r="M77" s="2" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P77" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="R77" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S77" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" customHeight="true" ht="20.0">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>20250315_131931_2</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>聖女小番茄(110g), 雞滷蛋黃(現煮)(47g), 鴕鳥沙朗肉排(92g), 紅糯糙米(80g), 白櫻桃(100g)</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (684/703)</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (90.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (36.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (19.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>0.33 (115/350)</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (1116/1225)</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>0.47 (328/700)</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>1.51 (164/108)</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>52.8%</t>
+        </is>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="M78" s="2" t="inlineStr">
+        <is>
+          <t>25.7%</t>
+        </is>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P78" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q78" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R78" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S78" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" customHeight="true" ht="20.0">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>20250315_131931_3</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(109g), 鴨腸(63g), 脫脂強化鮮乳(寡醣強化)(103g), 稉米(台農71號)(107g), 鴨鹹蛋平均值(26g), 雙色水果玉米(84g), 水菜(日本種)(176g)</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (819/703)</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>1.45 (130.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (31.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (18.7/23.2)</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (371/350)</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (1181/1225)</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (516/700)</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (130/108)</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>63.9%</t>
+        </is>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>15.6%</t>
+        </is>
+      </c>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t>20.5%</t>
+        </is>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P79" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q79" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R79" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S79" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" customHeight="true" ht="20.0">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>20250315_133127_1</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台中189號)(111g), 鱗網帶鰆(含皮)(27g), 蕹菜(土植)(4月取樣)(122g), 土雞蛋(32g), 鴨蛋(52g), 鯔(12月,雄魚)(73g)</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (743/703)</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (93.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (43.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (21.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (184/350)</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (1052/1225)</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (378/700)</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (102/108)</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>50.5%</t>
+        </is>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>23.4%</t>
+        </is>
+      </c>
+      <c r="M80" s="2" t="inlineStr">
+        <is>
+          <t>26.2%</t>
+        </is>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P80" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q80" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R80" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S80" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" customHeight="true" ht="20.0">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>20250315_133127_2</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>糯小米(80g), 肯特芒果(145g), 鴨熟鹹蛋(薄鹽)(39g), 雞心(肉雞)(73g), 山芹菜(100g)</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (663/703)</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (83.6/90.3)</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (32.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (22.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (214/350)</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (1269/1225)</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (693/700)</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (113/108)</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>50.4%</t>
+        </is>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>19.3%</t>
+        </is>
+      </c>
+      <c r="M81" s="2" t="inlineStr">
+        <is>
+          <t>30.3%</t>
+        </is>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P81" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q81" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R81" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" customHeight="true" ht="20.0">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>20250315_133127_3</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(80g), 保久羊乳(124g), 紅肉李(小)(132g), 秈米(台中秈10號)(2024年取樣)(80g), 鴨熟鹹蛋(薄鹽)(32g), 起酥片(38g), 山芹菜(105g)</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (712/703)</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (110.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (19.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (21.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (327/350)</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (1290/1225)</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (564/700)</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (116/108)</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>61.8%</t>
+        </is>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>10.9%</t>
+        </is>
+      </c>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>27.3%</t>
+        </is>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P82" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q82" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R82" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S82" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" customHeight="true" ht="20.0">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>20250315_133631_1</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>豆干丁(五香)(46g), 冷凍玉米粒(80g), 小甜椒(青皮)(138g), 紅柑(127g), 開英種1號鳳梨(178g), 花身副麗魚(25g), 高脂凝態發酵乳(纖維強化)(182g)</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (738/760)</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (97.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (33.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (24.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>1.50 (524/350)</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (1462/1225)</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (550/700)</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (129/108)</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>52.9%</t>
+        </is>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>17.9%</t>
+        </is>
+      </c>
+      <c r="M83" s="2" t="inlineStr">
+        <is>
+          <t>29.2%</t>
+        </is>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P83" s="2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="Q83" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R83" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S83" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" customHeight="true" ht="20.0">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>20250315_133631_2</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(80g), 全脂鮮乳(6月取樣)(100g), 蕹菜(土植)(4月取樣)(151g), 蓮花芒果(147g), 豆干片(沙茶)(40g), 花胡瓜(有機)(135g)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (523/760)</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (64.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>0.46 (16.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (22.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (426/350)</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (1256/1225)</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (488/700)</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (127/108)</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>49.3%</t>
+        </is>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="M84" s="2" t="inlineStr">
+        <is>
+          <t>38.1%</t>
+        </is>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="P84" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q84" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R84" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S84" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" customHeight="true" ht="20.0">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>20250315_133631_3</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>薔薇項鰭魚(去皮)(46g), 紅柑(112g), 稉米(台中189號)(80g), 日本花鱸((3月)(36g), 紅蝦仁(43g), 澳洲甜橙(進口)(100g), 鯖魚(煎)(34g), 黑齒牡蠣(46g), 高脂凝態發酵乳(纖維強化)(111g)</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (749/760)</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (101.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (41.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (19.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (253/350)</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (1003/1225)</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (770/700)</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (119/108)</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>54.1%</t>
+        </is>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>22.3%</t>
+        </is>
+      </c>
+      <c r="M85" s="2" t="inlineStr">
+        <is>
+          <t>23.6%</t>
+        </is>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P85" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q85" s="2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="R85" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S85" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" customHeight="true" ht="20.0">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134309_1</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>鴨生鹹蛋(35g), 炒蛋(加油3大匙)(49g), 玉米胚芽(87g), 白對蝦平均值(33g), 鵪鶉滷蛋(25g), 全脂鮮乳(9月取樣)(100g), 真鯛(5月)(50g)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (675/760)</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (80.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (40.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (21.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (180/350)</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (666/1225)</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (864/700)</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (69/108)</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t>24.1%</t>
+        </is>
+      </c>
+      <c r="M86" s="2" t="inlineStr">
+        <is>
+          <t>28.4%</t>
+        </is>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="P86" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q86" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R86" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S86" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" customHeight="true" ht="20.0">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134309_2</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>刺鯧(含皮)(44g), 稉米(高雄139號)(80g), 炒蛋(加油3大匙)(44g), 豬血(74g), 太陽洋香瓜(155g), 豬絞肉平均值(57g), 日本油菜(有機)(100g), 西瓜平均值(紅肉小瓜)(169g)</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (718/760)</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (94.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (38.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (21.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (152/350)</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (1344/1225)</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (362/700)</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>1.45 (157/108)</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>52.4%</t>
+        </is>
+      </c>
+      <c r="L87" s="2" t="inlineStr">
+        <is>
+          <t>21.4%</t>
+        </is>
+      </c>
+      <c r="M87" s="2" t="inlineStr">
+        <is>
+          <t>26.3%</t>
+        </is>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P87" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q87" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R87" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S87" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" customHeight="true" ht="20.0">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134309_3</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>刺鯧(含皮)(48g), 茶葉蛋白(浸泡隔夜)(38g), 蛋黃芋頭酥(30g), 鯖魚(烤,150度,20分)(48g), 小白菜(有機)(1月取樣)(100g), 蚵仔白菜(2022年取樣)(132g), 稉米(高雄139號)(2021年取樣)(98g)</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (736/760)</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (94.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (35.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (24.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (386/350)</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (1138/1225)</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (521/700)</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>1.49 (162/108)</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>51.5%</t>
+        </is>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
+        <is>
+          <t>19.2%</t>
+        </is>
+      </c>
+      <c r="M88" s="2" t="inlineStr">
+        <is>
+          <t>29.3%</t>
+        </is>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P88" s="2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="Q88" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R88" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S88" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" customHeight="true" ht="20.0">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134714_1</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉9號)(130g), 黃豆粉(68g), 芒果乾(209g), 稉米(高雄145號)(103g), 豬心(71g), 小白菜(土植)(10月取樣)(126g), 真牡蠣平均值(46g), 全脂鮮乳(12月取樣)(200g), 西施蜜柚(231g), 黑麥片(80g), 鴨鹹蛋平均值(29g), 雙胞胎麵包(75g), 豬肩胛排(59g), 銀鯧(5月)(25g), 白肉鮭魚切片(27g)</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>3.97 (3020/760)</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>5.53 (539.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>2.87 (103.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>1.99 (50.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>1.98 (691/350)</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>2.70 (3307/1225)</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>2.04 (1426/700)</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>3.81 (413/108)</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>71.5%</t>
+        </is>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
+        <is>
+          <t>13.6%</t>
+        </is>
+      </c>
+      <c r="M89" s="2" t="inlineStr">
+        <is>
+          <t>14.9%</t>
+        </is>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="P89" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="Q89" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="R89" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S89" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" customHeight="true" ht="20.0">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134714_2</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>雜糧中筋麵粉(99g), 大麥仁粉(80g), 黃豆粉(68g), 芒果乾(209g), 黃櫛瓜(119g), 豬心(71g), 雞滷蛋黃(現煮)(47g), 稉米(高雄145號)(103g), 珍珠苦瓜(139g), 台灣鯛魚片(微波)(44g), 西施蜜柚(231g), 豬耳(97g), 全脂鮮乳(4月取樣)(170g)</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>3.81 (2894/760)</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>4.86 (474.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>3.16 (113.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>2.39 (60.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>1.69 (590/350)</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>2.93 (3585/1225)</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>1.51 (1053/700)</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>3.58 (388/108)</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>65.6%</t>
+        </is>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>15.7%</t>
+        </is>
+      </c>
+      <c r="M90" s="2" t="inlineStr">
+        <is>
+          <t>18.7%</t>
+        </is>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="P90" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="Q90" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="R90" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S90" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" customHeight="true" ht="20.0">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134714_3</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>黃豆粉(68g), 芒果乾(209g), 黃櫛瓜(119g), 豬心(71g), 雞滷蛋黃(現煮)(47g), 珍珠苦瓜(139g), 稉米(高雄139號)(2021年取樣)(115g), 台灣鯛魚片(微波)(44g), 菊花南瓜(167g), 雪白菇(86g), 西施蜜柚(231g), 全脂鮮乳(4月取樣)(170g), 雙胞胎麵包(75g), 豬肩胛排(64g)</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>3.42 (2596/760)</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>4.32 (421.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>2.70 (97.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>2.31 (58.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>1.70 (593/350)</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>3.69 (4522/1225)</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>1.38 (965/700)</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>3.33 (360/108)</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>64.9%</t>
+        </is>
+      </c>
+      <c r="L91" s="2" t="inlineStr">
+        <is>
+          <t>15.0%</t>
+        </is>
+      </c>
+      <c r="M91" s="2" t="inlineStr">
+        <is>
+          <t>20.1%</t>
+        </is>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="P91" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="Q91" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="R91" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S91" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" customHeight="true" ht="20.0">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134800_1</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>茂谷柑(193g), 高山大豌豆莢(62g), 冷凍胡蘿蔔(126g), 雞滷蛋黃(現煮)(35g), 鵝肝(73g), 三線磯鱸(52g), 白飯(136g), 高脂凝態發酵乳(纖維強化)(100g)</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (767/760)</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (101.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (41.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (22.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (270/350)</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>1.57 (1918/1225)</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (641/700)</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (106/108)</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="M92" s="2" t="inlineStr">
+        <is>
+          <t>25.8%</t>
+        </is>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P92" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q92" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="R92" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S92" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" customHeight="true" ht="20.0">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134800_2</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>餐包(41g), 白玉米(98g), 冷凍花椰菜(158g), 香魚(50g), 金喜菇(84g), 桃太郎番茄(137g), 玉文芒果(200g), 花身鯻(40g), 高脂強化鮮乳(寡醣強化)(155g)</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (753/760)</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (98.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (36.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (23.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (267/350)</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>1.45 (1772/1225)</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (308/700)</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>1.30 (140/108)</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>52.3%</t>
+        </is>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>19.4%</t>
+        </is>
+      </c>
+      <c r="M93" s="2" t="inlineStr">
+        <is>
+          <t>28.3%</t>
+        </is>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="P93" s="2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q93" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R93" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S93" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" customHeight="true" ht="20.0">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>20250315_134800_3</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>鵪鶉鹹蛋(74g), 高山大豌豆莢(51g), 鹹麻糬(51g), 白飯(136g), 豬大里肌(65g), 高脂強化鮮乳(寡醣強化)(121g)</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (742/760)</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (90.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (36.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (26.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (152/350)</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (772/1225)</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>2.23 (1560/700)</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (65/108)</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>48.7%</t>
+        </is>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>19.6%</t>
+        </is>
+      </c>
+      <c r="M94" s="2" t="inlineStr">
+        <is>
+          <t>31.7%</t>
+        </is>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="P94" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q94" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R94" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S94" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" customHeight="true" ht="20.0">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>20250315_140433_1</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>即食燕麥片(90g), 全脂鮮乳(11月取樣)(191g), 香芋冬瓜(217g), 軟翅仔(61g), 銀鯧(12月)(34g), 香草冰淇淋(48g)</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (676/760)</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (85.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (34.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (21.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (315/350)</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (1322/1225)</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (419/700)</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>1.74 (188/108)</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>50.7%</t>
+        </is>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>20.2%</t>
+        </is>
+      </c>
+      <c r="M95" s="2" t="inlineStr">
+        <is>
+          <t>29.1%</t>
+        </is>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P95" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q95" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R95" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S95" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" customHeight="true" ht="20.0">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>20250315_140433_2</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>淡煉乳(100g), 薔薇項鰭魚(含皮)(34g), 正櫻蝦(生)(52g), 玉米餅乾(原味)(39g), 中筋麵粉(84g), 大文蛤(50g)</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (717/760)</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (97.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (36.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (20.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>2.24 (784/350)</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (772/1225)</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (943/700)</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>1.77 (191/108)</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>54.1%</t>
+        </is>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>20.5%</t>
+        </is>
+      </c>
+      <c r="M96" s="2" t="inlineStr">
+        <is>
+          <t>25.4%</t>
+        </is>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P96" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q96" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="R96" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S96" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" customHeight="true" ht="20.0">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>20250315_140433_3</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>芥菜(219g), 鴨熟鹹蛋(薄鹽)(58g), 二節翅(土雞)(70g), 稉型糯米平均值(89g), 豬腎(65g), 大頭蝦仁(48g), 冷藏廣式芋頭粿(35g)</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (733/760)</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (86.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>1.32 (47.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (22.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (271/350)</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (1156/1225)</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>1.87 (1309/700)</t>
+        </is>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (88/108)</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>47.2%</t>
+        </is>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
+        <is>
+          <t>25.9%</t>
+        </is>
+      </c>
+      <c r="M97" s="2" t="inlineStr">
+        <is>
+          <t>26.9%</t>
+        </is>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="P97" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q97" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R97" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S97" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" customHeight="true" ht="20.0">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>20250315_140509_1</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>豆瓣菜(101g), 糙秈米漿(99g), 蓮藕(49g), 雞蛋(白殼)(45g), 鵝腿肉(64g), 即食燕麥片(104g)</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (710/760)</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (92.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (39.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (20.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (188/350)</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (1168/1225)</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>0.29 (206/700)</t>
+        </is>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>1.78 (193/108)</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>52.0%</t>
+        </is>
+      </c>
+      <c r="L98" s="2" t="inlineStr">
+        <is>
+          <t>22.3%</t>
+        </is>
+      </c>
+      <c r="M98" s="2" t="inlineStr">
+        <is>
+          <t>25.7%</t>
+        </is>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P98" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q98" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R98" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S98" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" customHeight="true" ht="20.0">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>20250315_140509_2</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>豆干丁(五香)(49g), 中脂濃稠發酵乳(無糖&amp;纖維強化)(152g), 環文蛤(28g), 馬齒莧(149g), 即食燕麥片(104g)</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (762/760)</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (99.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (38.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (23.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>1.76 (614/350)</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (995/1225)</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>1.28 (896/700)</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>2.66 (288/108)</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>52.4%</t>
+        </is>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>20.4%</t>
+        </is>
+      </c>
+      <c r="M99" s="2" t="inlineStr">
+        <is>
+          <t>27.2%</t>
+        </is>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P99" s="2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="Q99" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R99" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S99" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" customHeight="true" ht="20.0">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>20250315_140509_3</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>豆干丁(五香)(49g), 糙秈米漿(99g), 雞蛋(白殼)(50g), 即食燕麥片(104g)</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (746/760)</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (92.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (37.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (25.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (385/350)</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>0.48 (591/1225)</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (579/700)</t>
+        </is>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>1.75 (189/108)</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>49.4%</t>
+        </is>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>19.9%</t>
+        </is>
+      </c>
+      <c r="M100" s="2" t="inlineStr">
+        <is>
+          <t>30.8%</t>
+        </is>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P100" s="2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="Q100" s="2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="R100" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S100" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" customHeight="true" ht="20.0">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212152_1</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>雜糧中筋麵粉(83g), 蟹腳肉(72g), 冷凍胡蘿蔔(108g), 鴨熟鹹蛋(薄鹽)(51g), 肉鬆麵包(52g), 眼眶魚(41g)</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (728/760)</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (91.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (40.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (22.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (381/350)</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (613/1225)</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>2.03 (1422/700)</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>1.42 (154/108)</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>22.2%</t>
+        </is>
+      </c>
+      <c r="M101" s="2" t="inlineStr">
+        <is>
+          <t>27.8%</t>
+        </is>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P101" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q101" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R101" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S101" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" customHeight="true" ht="20.0">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212152_2</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(81g), 薏仁(83g), 車輪餅(菜脯)(35g), 大心芥菜(100g), 綠殼菜蛤干(25g), 雪白菇(76g), 章魚(45g), 青江菜(水耕)(4月取樣)(100g), 雞心(肉雞)(2021年取樣)(62g)</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (729/760)</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (92.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (42.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (21.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (191/350)</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>1.26 (1540/1225)</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (585/700)</t>
+        </is>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>2.45 (266/108)</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="inlineStr">
+        <is>
+          <t>50.5%</t>
+        </is>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>23.4%</t>
+        </is>
+      </c>
+      <c r="M102" s="2" t="inlineStr">
+        <is>
+          <t>26.1%</t>
+        </is>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="P102" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q102" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R102" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S102" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" customHeight="true" ht="20.0">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212152_3</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(88g), 冷凍玉米粒(87g), 蕹菜(土植)(7月取樣)(113g), 綠殼菜蛤干(43g), 蒟蒻粉(25g), 雪白菇(76g), 蜜棗平均值(大)(160g), 豬肩胛排(2021年取樣)(61g)</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (755/760)</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (92.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (40.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (24.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (203/350)</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>1.62 (1989/1225)</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (536/700)</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>1.33 (144/108)</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>48.9%</t>
+        </is>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="M103" s="2" t="inlineStr">
+        <is>
+          <t>29.4%</t>
+        </is>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P103" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q103" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R103" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S103" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" customHeight="true" ht="20.0">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212307_1</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>糯小米(105g), 雞滷蛋黃(浸泡隔夜)(46g), 雞鐵蛋(39g), 皇宮菜(134g)</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (693/760)</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (84.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (34.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (24.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (177/350)</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (718/1225)</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (709/700)</t>
+        </is>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>1.33 (144/108)</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="inlineStr">
+        <is>
+          <t>48.6%</t>
+        </is>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>19.9%</t>
+        </is>
+      </c>
+      <c r="M104" s="2" t="inlineStr">
+        <is>
+          <t>31.5%</t>
+        </is>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P104" s="2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="Q104" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R104" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S104" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" customHeight="true" ht="20.0">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212307_2</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>糯小米(105g), 雞滷蛋黃(浸泡隔夜)(46g), 雞鐵蛋(39g), 皇宮菜(134g), 木瓜(5月取樣)(102g)</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (743/760)</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (95.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (35.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (24.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (217/350)</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (931/1225)</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (713/700)</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>1.48 (160/108)</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>51.6%</t>
+        </is>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>18.9%</t>
+        </is>
+      </c>
+      <c r="M105" s="2" t="inlineStr">
+        <is>
+          <t>29.5%</t>
+        </is>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P105" s="2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q105" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R105" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S105" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" customHeight="true" ht="20.0">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212307_3</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>白柚(135g), 雞滷蛋黃(浸泡隔夜)(37g), 車輪餅(菜脯)(44g), 正鰹(62g), 皇宮菜(111g), 稉米(台南11號)(90g)</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (727/760)</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (102.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (34.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (20.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (189/350)</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (1109/1225)</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (590/700)</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>1.33 (144/108)</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="inlineStr">
+        <is>
+          <t>56.3%</t>
+        </is>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
+        <is>
+          <t>18.8%</t>
+        </is>
+      </c>
+      <c r="M106" s="2" t="inlineStr">
+        <is>
+          <t>24.9%</t>
+        </is>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P106" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q106" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R106" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S106" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" customHeight="true" ht="20.0">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212515_1</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>酪梨(室溫存放6天)(199g), 尼羅口孵非鯽(去皮)(46g), 李子平均值(青皮黃肉)(165g), 小白菜(土植)(7月取樣)(142g), 芹菜(122g), 芹菜平均值(150g), 中脂鮮乳(180g), 白飯(87g), 魩仔魚(40g)</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (693/760)</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (89.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (33.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (22.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>2.00 (698/350)</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>2.18 (2671/1225)</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (685/700)</t>
+        </is>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>1.75 (189/108)</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="inlineStr">
+        <is>
+          <t>51.8%</t>
+        </is>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
+      <c r="M107" s="2" t="inlineStr">
+        <is>
+          <t>29.2%</t>
+        </is>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="P107" s="2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="Q107" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R107" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S107" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" customHeight="true" ht="20.0">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212515_2</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>鯔(8月)(39g), 秋刀魚(45g), 糙米粉(114g)</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (758/760)</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (96.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (34.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (25.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>0.08 (27/350)</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (626/1225)</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>0.11 (79/700)</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>1.61 (174/108)</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="inlineStr">
+        <is>
+          <t>51.1%</t>
+        </is>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>18.1%</t>
+        </is>
+      </c>
+      <c r="M108" s="2" t="inlineStr">
+        <is>
+          <t>30.8%</t>
+        </is>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="P108" s="2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="Q108" s="2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="R108" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S108" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" customHeight="true" ht="20.0">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>20250315_212515_3</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>小白菜(土植)(7月取樣)(142g), 鯔(8月)(55g), 秋刀魚(59g), 糙米粉(121g)</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (775/760)</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (99.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (35.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (26.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>0.48 (168/350)</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (830/1225)</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (248/700)</t>
+        </is>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>1.78 (192/108)</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="inlineStr">
+        <is>
+          <t>51.3%</t>
+        </is>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="M109" s="2" t="inlineStr">
+        <is>
+          <t>30.3%</t>
+        </is>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="P109" s="2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q109" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R109" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" customHeight="true" ht="20.0">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>20250315_213510_1</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(80g), 本島萵苣(水耕)(10月取樣)(163g), 高脂鮮乳(147g), 魩仔魚(加工)(25g), 餐包(28g), 甜豌豆莢(74g), 香吉士(進口)(143g), 象牙鳳螺(46g), 蘇打餅乾(蔬菜)(38g), 綠蘆筍(169g), 尼羅口孵非鯽(去皮)(50g)</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (749/760)</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (90.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (41.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (24.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>1.55 (541/350)</t>
+        </is>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>1.61 (1974/1225)</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>1.24 (866/700)</t>
+        </is>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>2.24 (243/108)</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="inlineStr">
+        <is>
+          <t>48.2%</t>
+        </is>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
+        <is>
+          <t>22.1%</t>
+        </is>
+      </c>
+      <c r="M110" s="2" t="inlineStr">
+        <is>
+          <t>29.7%</t>
+        </is>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P110" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q110" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R110" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S110" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" customHeight="true" ht="20.0">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>20250315_213510_2</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(83g), 本島萵苣(水耕)(10月取樣)(163g), 高脂鮮乳(147g), 魩仔魚(加工)(25g), 茶葉蛋(浸泡隔夜)(42g), 荔枝平均值(141g), 三節翅(肉雞)(50g), 甜豌豆莢(82g), 水菜(日本種)(160g), 小白菜(土植)(7月取樣)(107g), 黃金果(137g)</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (707/760)</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (79.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (37.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (26.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>2.04 (714/350)</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>1.93 (2362/1225)</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (799/700)</t>
+        </is>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>1.99 (216/108)</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>44.9%</t>
+        </is>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>21.2%</t>
+        </is>
+      </c>
+      <c r="M111" s="2" t="inlineStr">
+        <is>
+          <t>33.8%</t>
+        </is>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P111" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q111" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="R111" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S111" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" customHeight="true" ht="20.0">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>20250315_213510_3</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(80g), 綠殼菜蛤干(28g), 茶葉蛋(浸泡隔夜)(42g), 金蜜芒果(133g), 豬後腿肉(53g), 冰淇淋粉(香草)(30g), 魩仔魚(加工)(28g)</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (612/760)</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (66.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (43.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (19.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (345/350)</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (1123/1225)</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>1.50 (1048/700)</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>1.46 (158/108)</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="inlineStr">
+        <is>
+          <t>43.4%</t>
+        </is>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
+        <is>
+          <t>28.3%</t>
+        </is>
+      </c>
+      <c r="M112" s="2" t="inlineStr">
+        <is>
+          <t>28.3%</t>
+        </is>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P112" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q112" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R112" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S112" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10542,6 +10542,843 @@
         </is>
       </c>
     </row>
+    <row r="113" customHeight="true" ht="20.0">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>20250315_230749_1</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>白玉米(80g), 甘扁桃仁片(熟)(25g), 橫山梨(116g), 帶殼熟綠竹筍(146g), 花豆(54g), 滷蛋平均值(25g), 牛肚(蜂巢胃)(50g)</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (635/760)</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (69.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (38.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (22.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (177/350)</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (1385/1225)</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (380/700)</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>1.84 (199/108)</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>43.5%</t>
+        </is>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>24.0%</t>
+        </is>
+      </c>
+      <c r="M113" s="2" t="inlineStr">
+        <is>
+          <t>32.4%</t>
+        </is>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P113" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q113" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="R113" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S113" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" customHeight="true" ht="20.0">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>20250315_230749_2</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>白玉米(80g), 橫山梨(169g), 高脂凝態發酵乳(纖維強化)(100g), 蘇打餅乾(蔬菜)(26g), 黑葉白菜(短梗)(100g), 南瓜平均值(134g), 豆干丁(五香)(28g), 小卷干(26g)</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (688/760)</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (93.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (38.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (18.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>1.34 (468/350)</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>1.40 (1720/1225)</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (917/700)</t>
+        </is>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>2.45 (265/108)</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="inlineStr">
+        <is>
+          <t>54.0%</t>
+        </is>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>22.5%</t>
+        </is>
+      </c>
+      <c r="M114" s="2" t="inlineStr">
+        <is>
+          <t>23.5%</t>
+        </is>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="P114" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="Q114" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R114" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S114" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" customHeight="true" ht="20.0">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>20250315_230749_3</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>燕麥片(80g), 甘扁桃仁片(熟)(25g), 本島萵苣(有機)(4月取樣)(100g), 藍莓(台灣)(100g), 魩仔魚(加工,小)(39g), 松茸白菇(69g), 低脂鮮乳(102g), 木瓜牛奶(160g)</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (762/760)</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (93.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (39.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (25.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>1.40 (488/350)</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (1648/1225)</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>1.69 (1181/700)</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>2.44 (264/108)</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="inlineStr">
+        <is>
+          <t>49.1%</t>
+        </is>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>20.6%</t>
+        </is>
+      </c>
+      <c r="M115" s="2" t="inlineStr">
+        <is>
+          <t>30.3%</t>
+        </is>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P115" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q115" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R115" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S115" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" customHeight="true" ht="20.0">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>20250315_232828_1</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>發芽稉米(台稉9號）(80g), 犬牙南極魚切片(44g), 大頭蝦仁(46g), 冷凍木耳(51g), 真鯛(1月)(39g), 中脂濃稠發酵乳(草莓)(100g), 真牡蠣平均值(36g), 中脂調味保久乳(布丁)(123g), 雞皮蛋(45g)</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (734/760)</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (94.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (38.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (22.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (255/350)</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (729/1225)</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>1.24 (867/700)</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>1.44 (156/108)</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="inlineStr">
+        <is>
+          <t>51.2%</t>
+        </is>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>20.9%</t>
+        </is>
+      </c>
+      <c r="M116" s="2" t="inlineStr">
+        <is>
+          <t>27.8%</t>
+        </is>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P116" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q116" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R116" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S116" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" customHeight="true" ht="20.0">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>20250315_232828_2</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>發芽稉米(台稉9號）(86g), 犬牙南極魚切片(54g), 大頭蝦仁(47g), 大眼金梭魚(49g), 中脂濃稠發酵乳(草莓)(104g)</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (703/760)</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (89.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (34.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (23.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (177/350)</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (697/1225)</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (546/700)</t>
+        </is>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (139/108)</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="inlineStr">
+        <is>
+          <t>51.0%</t>
+        </is>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>19.4%</t>
+        </is>
+      </c>
+      <c r="M117" s="2" t="inlineStr">
+        <is>
+          <t>29.6%</t>
+        </is>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P117" s="2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="Q117" s="2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R117" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S117" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" customHeight="true" ht="20.0">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>20250315_232828_3</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>發芽稉米(台稉9號）(93g), 犬牙南極魚切片(46g), 大頭蝦仁(47g), 鴨熟鹹蛋(27g), 大眼金梭魚(43g), 中脂濃稠發酵乳(草莓)(100g)</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (730/760)</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (93.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (35.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (24.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (178/350)</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (659/1225)</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>1.55 (1084/700)</t>
+        </is>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>1.34 (145/108)</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="inlineStr">
+        <is>
+          <t>50.9%</t>
+        </is>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>19.5%</t>
+        </is>
+      </c>
+      <c r="M118" s="2" t="inlineStr">
+        <is>
+          <t>29.6%</t>
+        </is>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="P118" s="2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="Q118" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R118" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" customHeight="true" ht="20.0">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>20250315_232902_1</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>發芽稉米(台稉71號)(80g), 魚酥(25g), 正櫻蝦(生)(44g), 小卷干(29g), 蜜糖甜甜圈(波/摩堤)(45g), 魩仔魚平均值(加工)(25g)</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (744/760)</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (96.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (39.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (22.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>1.71 (597/350)</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (624/1225)</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>2.01 (1404/700)</t>
+        </is>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>2.13 (231/108)</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="inlineStr">
+        <is>
+          <t>51.6%</t>
+        </is>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>21.4%</t>
+        </is>
+      </c>
+      <c r="M119" s="2" t="inlineStr">
+        <is>
+          <t>27.0%</t>
+        </is>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="P119" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q119" s="2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="R119" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S119" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" customHeight="true" ht="20.0">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>20250315_232902_2</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>秈米粉(99g), 鱖(44g), 正櫻蝦(生)(50g), 中脂調味乳(多穀類)(137g), 鴨鹹蛋黃(36g)</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (712/760)</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (93.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (32.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (23.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>1.53 (536/350)</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (439/1225)</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (428/700)</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (89/108)</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="inlineStr">
+        <is>
+          <t>52.5%</t>
+        </is>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="M120" s="2" t="inlineStr">
+        <is>
+          <t>29.2%</t>
+        </is>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P120" s="2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="Q120" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R120" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S120" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" customHeight="true" ht="20.0">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>20250315_232902_3</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>秈米粉(99g), 鱖(55g), 正櫻蝦(生)(50g), 中脂調味乳(多穀類)(190g), 鴨鹹蛋黃(36g)</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (757/760)</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (97.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (35.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (24.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>1.62 (566/350)</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>0.43 (523/1225)</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (457/700)</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (96/108)</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>51.5%</t>
+        </is>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
+      <c r="M121" s="2" t="inlineStr">
+        <is>
+          <t>29.6%</t>
+        </is>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P121" s="2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="Q121" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R121" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S121" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6357,6 +6357,3912 @@
         </is>
       </c>
     </row>
+    <row r="68" customHeight="true" ht="20.0">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>20250317_094818_1</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(118g), 胭脂蝦(37g), 全脂鮮乳平均值(154g), 大口鰜切片(含皮)(53g), 糯玉米(100g), 青江菜(土植)(7月取樣)(135g)</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (532/703)</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (61.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (26.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (19.9/23.2)</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (358/350)</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (986/1225)</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (452/700)</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (139/108)</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>46.4%</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>33.7%</t>
+        </is>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P68" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" customHeight="true" ht="20.0">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>20250317_094818_2</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(139g), 胭脂蝦(36g), 中脂調味保久乳(巧克力)(100g), 大口鰜切片(含皮)(41g), 柿餅(118g), 青江菜(土植)(7月取樣)(100g)</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (585/703)</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (94.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (20.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (13.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (219/350)</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (1313/1225)</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (422/700)</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (110/108)</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>64.7%</t>
+        </is>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>14.1%</t>
+        </is>
+      </c>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P69" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" customHeight="true" ht="20.0">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>20250317_094818_3</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>黃仁黑豆(55g), 全脂鮮乳平均值(120g), 熟箭竹筍(129g), 糯玉米(112g), 冷凍馬拉糕(25g), 柳松菇(67g)</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (633/703)</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (97.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (32.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (12.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (352/350)</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>1.55 (1900/1225)</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (533/700)</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>1.90 (206/108)</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>61.7%</t>
+        </is>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
+        <is>
+          <t>20.6%</t>
+        </is>
+      </c>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t>17.7%</t>
+        </is>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P70" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R70" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" customHeight="true" ht="20.0">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>20250317_105144_1</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(153g), 鴨蛋白(52g), 小番茄平均值(橙色系)(148g), 雙色水果玉米(100g), 雪白菇(長)(79g), 中脂濃稠發酵乳(草莓)(100g), 高山甜椒(青皮)(162g), 綠殼菜蛤干(37g)</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (752/703)</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (99.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (37.5/33.3)</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (22.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>0.49 (173/350)</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>1.55 (1892/1225)</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (473/700)</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>1.69 (183/108)</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>53.1%</t>
+        </is>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>19.9%</t>
+        </is>
+      </c>
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t>27.0%</t>
+        </is>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P71" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" customHeight="true" ht="20.0">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>20250317_105144_2</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(190g), 冷凍玉米粒(153g), 隼人瓜(155g), 康氏馬加鰆切片(去皮)(51g), 蕹菜(土植)(10月取樣)(101g), 中脂濃稠發酵乳(草莓)(100g), 大目鮪(42g)</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (755/703)</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (91.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (36.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (26.9/23.2)</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (184/350)</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>1.44 (1759/1225)</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>0.34 (238/700)</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>1.67 (181/108)</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>48.6%</t>
+        </is>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
+        <is>
+          <t>19.4%</t>
+        </is>
+      </c>
+      <c r="M72" s="2" t="inlineStr">
+        <is>
+          <t>32.0%</t>
+        </is>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P72" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" customHeight="true" ht="20.0">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>20250317_105144_3</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(112g), 紫色甘藍(100g), 絲瓜(195g), 雞滷蛋黃(現煮)(29g), 黃金果(186g), 鳳梨果乾(36g), 蓮霧(紅寶石)(110g)</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (670/703)</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (106.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>0.46 (15.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (20.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>0.42 (147/350)</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (1218/1225)</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>0.39 (269/700)</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (101/108)</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>63.7%</t>
+        </is>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
+        <is>
+          <t>9.1%</t>
+        </is>
+      </c>
+      <c r="M73" s="2" t="inlineStr">
+        <is>
+          <t>27.2%</t>
+        </is>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P73" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q73" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R73" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S73" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" customHeight="true" ht="20.0">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>20250317_110527_1</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台農71號)(126g), 楊桃(5月取樣)(120g), 脫脂強化鮮乳(寡醣強化)(122g), 蓮霧(黑金剛)(146g), 本島萵苣(水耕)(7月取樣)(196g), 鮪魚生魚片(28g), 鵝蛋(44g), 綠殼菜蛤干(32g)</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (834/703)</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>1.56 (140.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (42.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>0.48 (11.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (279/350)</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>1.40 (1719/1225)</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (393/700)</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (126/108)</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>67.3%</t>
+        </is>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
+        <is>
+          <t>20.5%</t>
+        </is>
+      </c>
+      <c r="M74" s="2" t="inlineStr">
+        <is>
+          <t>12.1%</t>
+        </is>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P74" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="Q74" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R74" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S74" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" customHeight="true" ht="20.0">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>20250317_110527_2</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(100g), 姬魚(28g), 冷凍甘藍(116g), 小白菜(水耕)(7月取樣)(100g), 中脂鮮乳(102g), 紅梗珍珠菜(169g), 鱗網帶鰆(含皮)(55g)</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (452/703)</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>0.38 (34.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (31.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (21.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>1.50 (525/350)</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>1.59 (1941/1225)</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>0.25 (177/700)</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>1.79 (194/108)</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>30.1%</t>
+        </is>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>27.6%</t>
+        </is>
+      </c>
+      <c r="M75" s="2" t="inlineStr">
+        <is>
+          <t>42.4%</t>
+        </is>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="P75" s="2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R75" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" customHeight="true" ht="20.0">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>20250317_110527_3</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>小白菜(有機)(4月取樣)(129g), 冷凍玉米粒(113g), 乾猴頭菇(54g), 草魚切片(33g), 日本玻璃蝦(42g)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (592/703)</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (75.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (29.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (19.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>1.60 (559/350)</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>2.39 (2929/1225)</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (370/700)</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>1.71 (186/108)</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>50.8%</t>
+        </is>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>20.2%</t>
+        </is>
+      </c>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>29.0%</t>
+        </is>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R76" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" customHeight="true" ht="20.0">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>20250317_113129_1</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>虱目魚(9月)(46g), 青江菜(土植)(10月取樣)(111g), 煎蛋(不加油)(47g), 尼羅口孵非鯽(去皮)(52g), 牛修清前胸肉(73g), 紫玉米(100g), 芹菜(176g), 芹菜平均值(115g)</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (614/703)</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (58.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>1.65 (54.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (18.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (459/350)</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>1.89 (2314/1225)</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (440/700)</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (124/108)</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>37.9%</t>
+        </is>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="M77" s="2" t="inlineStr">
+        <is>
+          <t>26.5%</t>
+        </is>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P77" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="R77" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S77" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" customHeight="true" ht="20.0">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>20250317_113129_2</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>紫玉米(100g), 冷凍玉米粒(110g), 黑棘鯛(去皮)(49g), 鯔(含皮)(44g), 大頭蝦仁(25g), 鮑魚(29g)</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (577/703)</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (67.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (36.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (18.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>0.12 (40/350)</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (1052/1225)</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (308/700)</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (115/108)</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>46.4%</t>
+        </is>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>25.1%</t>
+        </is>
+      </c>
+      <c r="M78" s="2" t="inlineStr">
+        <is>
+          <t>28.5%</t>
+        </is>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P78" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q78" s="2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R78" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S78" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" customHeight="true" ht="20.0">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>20250317_113129_3</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米漿(101g), 開英種1號鳳梨(170g), 帶膜花生仁(生)(1995年之前取樣)(31g), 全脂濃稠發酵乳(104g), 秀珍菇(61g)</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (524/703)</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (65.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (19.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (20.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>0.35 (122/350)</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (1144/1225)</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>0.14 (95/700)</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (133/108)</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>49.9%</t>
+        </is>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>14.8%</t>
+        </is>
+      </c>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t>35.3%</t>
+        </is>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="P79" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="Q79" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R79" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S79" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" customHeight="true" ht="20.0">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>20250317_113931_1</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>大麥仁(110g), 長體油胡瓜魚(50g), 秀珍菇(65g), 骨腿(肉雞)(86g), 雞蛋平均值(35g)</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (682/703)</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (89.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (35.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (20.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (181/350)</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (778/1225)</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>0.27 (187/700)</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (101/108)</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M80" s="2" t="inlineStr">
+        <is>
+          <t>26.3%</t>
+        </is>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P80" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q80" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R80" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S80" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" customHeight="true" ht="20.0">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>20250317_113931_2</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(104g), 真牡蠣(57g), 秈型糯米(台中糯70號)(114g), 全脂鮮乳(12月取樣)(100g), 冷藏廣式芋頭粿(68g), 全脂鮮乳平均值(200g), 鮟鱇(43g), 滑菇(74g)</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (862/703)</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>1.57 (142.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (36.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (16.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (330/350)</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (1268/1225)</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (446/700)</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>1.33 (144/108)</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>65.9%</t>
+        </is>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
+      <c r="M81" s="2" t="inlineStr">
+        <is>
+          <t>17.1%</t>
+        </is>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P81" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q81" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R81" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" customHeight="true" ht="20.0">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>20250317_113931_3</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(130g), 木瓜(11月取樣)(174g), 全脂鮮乳(12月取樣)(158g), 蜜棗李(進口)(133g), 冷凍帶殼花生(熟)(39g)</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (548/703)</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (75.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (17.5/33.3)</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (19.7/23.2)</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (203/350)</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (1163/1225)</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>0.31 (219/700)</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>1.50 (162/108)</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>54.8%</t>
+        </is>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>32.4%</t>
+        </is>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="P82" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q82" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R82" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S82" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" customHeight="true" ht="20.0">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>20250317_114150_1</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>紅豆土司(36g), 雞蛋黃(黃殼)(46g), 油菜(有機)(193g), 小米(102g)</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (655/703)</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (97.1/90.3)</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (24.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (19.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (326/350)</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (1186/1225)</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>0.26 (179/700)</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>1.55 (167/108)</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>59.3%</t>
+        </is>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>14.7%</t>
+        </is>
+      </c>
+      <c r="M83" s="2" t="inlineStr">
+        <is>
+          <t>26.1%</t>
+        </is>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P83" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q83" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R83" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S83" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" customHeight="true" ht="20.0">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>20250317_114150_2</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>刺鯧(含皮)(71g), 白玉米(100g), 豬肝連(91g), 青皮葡萄柚(100g), 中脂鮮乳(192g)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (498/703)</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>0.32 (29.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (36.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (26.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (239/350)</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (1054/1225)</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>0.37 (260/700)</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>1.43 (154/108)</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>23.3%</t>
+        </is>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>29.0%</t>
+        </is>
+      </c>
+      <c r="M84" s="2" t="inlineStr">
+        <is>
+          <t>47.8%</t>
+        </is>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P84" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="Q84" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R84" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S84" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" customHeight="true" ht="20.0">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>20250317_114150_3</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>翻車魨魚皮(46g), 糙稉米(台稉9號)(100g), 小黃魚(含皮)(31g), 雞滷蛋黃(現煮)(26g), 銀魚(29g), 全脂鮮乳(9月取樣)(103g), 牛後腿肉(69g), 苦瓜(白皮)(100g)</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (713/703)</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (89.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (44.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (252/350)</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (1022/1225)</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (369/700)</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>2.23 (242/108)</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>50.4%</t>
+        </is>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="M85" s="2" t="inlineStr">
+        <is>
+          <t>24.4%</t>
+        </is>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P85" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="Q85" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R85" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S85" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" customHeight="true" ht="20.0">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>20250317_115026_1</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>包心芥菜(116g), 全脂鮮乳(9月取樣)(115g), 泡芙(巧克力)(28g), 綠蘆筍(短型)(127g), 多鱗四指馬鮁(30g), 牛肉火鍋片平均值(50g), 糯玉米(136g)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (691/703)</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (71.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (33.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>1.30 (30.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (235/350)</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (1456/1225)</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>0.21 (148/700)</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (139/108)</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>41.3%</t>
+        </is>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t>19.3%</t>
+        </is>
+      </c>
+      <c r="M86" s="2" t="inlineStr">
+        <is>
+          <t>39.4%</t>
+        </is>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P86" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q86" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="R86" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S86" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" customHeight="true" ht="20.0">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>20250317_115026_2</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>包心芥菜(116g), 虱目魚(8月)(36g), 玉米餅乾(原味)(29g), 泡芙(巧克力)(28g), 小麥(100g)</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (733/703)</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (104.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (28.9/33.3)</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (22.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>0.49 (170/350)</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (946/1225)</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>0.24 (165/700)</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>1.85 (200/108)</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>56.7%</t>
+        </is>
+      </c>
+      <c r="L87" s="2" t="inlineStr">
+        <is>
+          <t>15.7%</t>
+        </is>
+      </c>
+      <c r="M87" s="2" t="inlineStr">
+        <is>
+          <t>27.6%</t>
+        </is>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P87" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q87" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R87" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S87" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" customHeight="true" ht="20.0">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>20250317_115026_3</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>包心芥菜(116g), 虱目魚(8月)(36g), 可可椰子汁(屏東)(203g), 泡芙(巧克力)(28g), 小麥(100g), 海帶茸(34g)</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (668/703)</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (98.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (28.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (17.9/23.2)</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (266/350)</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (1376/1225)</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>0.27 (188/700)</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>1.99 (215/108)</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>59.1%</t>
+        </is>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
+        <is>
+          <t>16.8%</t>
+        </is>
+      </c>
+      <c r="M88" s="2" t="inlineStr">
+        <is>
+          <t>24.1%</t>
+        </is>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P88" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q88" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R88" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S88" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" customHeight="true" ht="20.0">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>20250317_115041_1</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>冷凍洋菇(98g), 稉型糯米(129g), 竹蟶(冷凍)(52g), 青江菜(水耕)(10月取樣)(102g), 雞滷蛋黃(浸泡隔夜)(45g)</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (736/703)</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>1.21 (108.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (30.3/33.3)</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (20.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (239/350)</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (903/1225)</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (722/700)</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>1.45 (157/108)</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>59.1%</t>
+        </is>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
+        <is>
+          <t>16.5%</t>
+        </is>
+      </c>
+      <c r="M89" s="2" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P89" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q89" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R89" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S89" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" customHeight="true" ht="20.0">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>20250317_115041_2</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>牛肚(瘤胃)(81g), 稉型糯米(129g), 雞滷蛋黃(浸泡隔夜)(52g), 銀鯧平均值(去皮)(27g)</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (715/703)</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (102.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (30.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (20.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>0.25 (87/350)</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>0.26 (313/1225)</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (593/700)</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (55/108)</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>57.1%</t>
+        </is>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>17.2%</t>
+        </is>
+      </c>
+      <c r="M90" s="2" t="inlineStr">
+        <is>
+          <t>25.7%</t>
+        </is>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="P90" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q90" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R90" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S90" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" customHeight="true" ht="20.0">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>20250317_115041_3</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>牛肚(瘤胃)(81g), 稉型糯米(129g), 雞滷蛋黃(浸泡隔夜)(52g), 冰花(141g)</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (696/703)</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (103.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (27.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>0.28 (99/350)</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (738/1225)</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>1.65 (1154/700)</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (64/108)</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>59.4%</t>
+        </is>
+      </c>
+      <c r="L91" s="2" t="inlineStr">
+        <is>
+          <t>15.6%</t>
+        </is>
+      </c>
+      <c r="M91" s="2" t="inlineStr">
+        <is>
+          <t>25.1%</t>
+        </is>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P91" s="2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="Q91" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R91" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S91" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" customHeight="true" ht="20.0">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>20250317_121114_1</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>刺鯧(含皮)(34g), 酪梨(室溫存放3天)(166g), 千寶菜(100g), 山藥(大汕3號)(52g), 中筋麵粉(100g)</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (640/703)</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (96.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (25.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (17.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>0.46 (159/350)</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (1451/1225)</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>0.20 (140/700)</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (147/108)</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>60.1%</t>
+        </is>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>16.0%</t>
+        </is>
+      </c>
+      <c r="M92" s="2" t="inlineStr">
+        <is>
+          <t>23.9%</t>
+        </is>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P92" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q92" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R92" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S92" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" customHeight="true" ht="20.0">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>20250317_121114_2</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>豬頰肉(76g), 千寶菜(108g), 希氏姬鯛(30g), 豆漿(無糖)(80g), 稉米(高雄142號)(115g)</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (613/703)</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (95.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (32.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (11.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>0.45 (158/350)</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (853/1225)</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>0.17 (122/700)</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (92/108)</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>62.0%</t>
+        </is>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M93" s="2" t="inlineStr">
+        <is>
+          <t>16.9%</t>
+        </is>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P93" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="Q93" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="R93" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S93" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" customHeight="true" ht="20.0">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>20250317_121114_3</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>葛仙米藻(37g), 紅藜麥(115g), 毛鱗魚(35g), 黑䱛(42g), 斑鱧(25g), 滷蛋黃平均值(34g), 紫山藥(29g)</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (737/703)</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (85.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (38.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (27.0/23.2)</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (237/350)</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (1445/1225)</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (390/700)</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>2.94 (319/108)</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>46.5%</t>
+        </is>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>20.6%</t>
+        </is>
+      </c>
+      <c r="M94" s="2" t="inlineStr">
+        <is>
+          <t>32.9%</t>
+        </is>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="P94" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q94" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R94" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S94" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" customHeight="true" ht="20.0">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>20250317_121858_1</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>紫玉米(143g), 冷凍玉米粒(131g), 全脂鮮乳(12月取樣)(100g), 大口黑鱸(28g), 冬瓜平均值(145g), 紅肉鮭魚切片(33g)</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (651/703)</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (89.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (29.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (19.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>0.37 (130/350)</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (1330/1225)</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>0.16 (113/700)</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (85/108)</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>54.9%</t>
+        </is>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>18.3%</t>
+        </is>
+      </c>
+      <c r="M95" s="2" t="inlineStr">
+        <is>
+          <t>26.8%</t>
+        </is>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P95" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q95" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R95" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S95" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" customHeight="true" ht="20.0">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>20250317_121858_2</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(109g), 冷凍玉米粒(100g), 蠔菇(77g), 莫三比克口孵非鯽(33g), 紫玉米(148g), 全脂鮮乳(10月取樣)(153g)</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (693/703)</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (103.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (26.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (19.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (173/350)</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (1505/1225)</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>0.14 (99/700)</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (110/108)</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>59.9%</t>
+        </is>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>15.0%</t>
+        </is>
+      </c>
+      <c r="M96" s="2" t="inlineStr">
+        <is>
+          <t>25.1%</t>
+        </is>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P96" s="2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="Q96" s="2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="R96" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S96" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" customHeight="true" ht="20.0">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>20250317_121858_3</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(109g), 紫玉米(148g), 黑芝麻糖(46g), 高脂強化鮮乳(寡醣強化)(100g)</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (676/703)</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (101.6/90.3)</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (17.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (22.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (370/350)</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (986/1225)</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>0.10 (70/700)</t>
+        </is>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>1.46 (158/108)</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>60.1%</t>
+        </is>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
+        <is>
+          <t>10.3%</t>
+        </is>
+      </c>
+      <c r="M97" s="2" t="inlineStr">
+        <is>
+          <t>29.6%</t>
+        </is>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P97" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q97" s="2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="R97" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S97" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" customHeight="true" ht="20.0">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122040_1</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>中脂濃稠發酵乳(無糖&amp;纖維強化)(152g), 冷凍玉米粒(106g), 全脂鮮乳(12月取樣)(132g), 脫脂稀釋發酵乳(鈣強化)(183g), 白玉米(100g)</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (655/703)</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (99.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (20.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (19.5/23.2)</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (458/350)</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (1067/1225)</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>0.28 (197/700)</t>
+        </is>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (100/108)</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>60.8%</t>
+        </is>
+      </c>
+      <c r="L98" s="2" t="inlineStr">
+        <is>
+          <t>12.4%</t>
+        </is>
+      </c>
+      <c r="M98" s="2" t="inlineStr">
+        <is>
+          <t>26.8%</t>
+        </is>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P98" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q98" s="2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="R98" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S98" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" customHeight="true" ht="20.0">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122040_2</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>發芽稉米(台稉71號)(116g), 鯖魚(生)(51g), 烏骨雞蛋白(66g), 山藥(白皮削)(35g), 本島萵苣(有機)(4月取樣)(131g), 冰花(145g)</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (714/703)</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (98.5/90.3)</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (26.4/33.3)</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (23.9/23.2)</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>0.31 (110/350)</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>1.53 (1869/1225)</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (816/700)</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>1.89 (204/108)</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>55.1%</t>
+        </is>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>14.8%</t>
+        </is>
+      </c>
+      <c r="M99" s="2" t="inlineStr">
+        <is>
+          <t>30.1%</t>
+        </is>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P99" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q99" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R99" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S99" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" customHeight="true" ht="20.0">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122040_3</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>鯔切片(70g), 越光米(121g), 亞麻仁籽粉(32g)</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (707/703)</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (97.8/90.3)</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (31.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (21.3/23.2)</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>0.33 (116/350)</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (639/1225)</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>0.04 (25/700)</t>
+        </is>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>1.54 (167/108)</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>55.3%</t>
+        </is>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>17.5%</t>
+        </is>
+      </c>
+      <c r="M100" s="2" t="inlineStr">
+        <is>
+          <t>27.1%</t>
+        </is>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P100" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q100" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="R100" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S100" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" customHeight="true" ht="20.0">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122246_1</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>旗魚腹肉(33g), 冷凍玉米粒(141g), 真鯛(1月)(72g), 白玉米(100g), 中脂濃稠發酵乳(176g), 雞滷蛋(市售)(39g)</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (636/703)</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (68.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (40.8/33.3)</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (22.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (196/350)</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (1134/1225)</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (392/700)</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (118/108)</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="inlineStr">
+        <is>
+          <t>43.0%</t>
+        </is>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>25.6%</t>
+        </is>
+      </c>
+      <c r="M101" s="2" t="inlineStr">
+        <is>
+          <t>31.4%</t>
+        </is>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P101" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q101" s="2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="R101" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S101" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" customHeight="true" ht="20.0">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122246_2</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>中脂鮮羊乳(213g), 二節翅(肉雞)(100g), 冷凍毛豆仁(53g), 糯玉米(144g), 苦瓜(白皮)(117g)</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (668/703)</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (67.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (36.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>1.21 (28.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (221/350)</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (1162/1225)</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (365/700)</t>
+        </is>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>1.46 (158/108)</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="inlineStr">
+        <is>
+          <t>40.1%</t>
+        </is>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>21.9%</t>
+        </is>
+      </c>
+      <c r="M102" s="2" t="inlineStr">
+        <is>
+          <t>38.0%</t>
+        </is>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P102" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q102" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R102" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S102" s="2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" customHeight="true" ht="20.0">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122246_3</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>中脂鮮羊乳(213g), 燕麥片(150g), 青江菜(土植)(4月取樣)(142g)</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (708/703)</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (107.0/90.3)</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (25.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (19.8/23.2)</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (323/350)</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (832/1225)</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>0.33 (233/700)</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>2.08 (225/108)</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>60.4%</t>
+        </is>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
+        <is>
+          <t>14.5%</t>
+        </is>
+      </c>
+      <c r="M103" s="2" t="inlineStr">
+        <is>
+          <t>25.1%</t>
+        </is>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P103" s="2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="Q103" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R103" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S103" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" customHeight="true" ht="20.0">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122326_1</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>高纖米(100g), 茶葉蛋白(浸泡隔夜)(57g), 小白菜(有機)(4月取樣)(100g), 鯖魚(烤,180度,10分)(41g), 白玉米(100g)</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (662/703)</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (89.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (32.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (19.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>0.45 (157/350)</t>
+        </is>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (1061/1225)</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (467/700)</t>
+        </is>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>1.69 (183/108)</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="inlineStr">
+        <is>
+          <t>54.0%</t>
+        </is>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>19.4%</t>
+        </is>
+      </c>
+      <c r="M104" s="2" t="inlineStr">
+        <is>
+          <t>26.6%</t>
+        </is>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P104" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q104" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R104" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S104" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" customHeight="true" ht="20.0">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122326_2</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>荸薺(39g), 高筋麵粉(100g), 鴨皮蛋(41g), 豬頰肉(2022年取樣)(72g), 油炸脫水甘藷(25g)</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (746/703)</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (100.7/90.3)</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (35.2/33.3)</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (22.6/23.2)</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>0.27 (94/350)</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (856/1225)</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (433/700)</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (71/108)</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>53.9%</t>
+        </is>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>18.9%</t>
+        </is>
+      </c>
+      <c r="M105" s="2" t="inlineStr">
+        <is>
+          <t>27.2%</t>
+        </is>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P105" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q105" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R105" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S105" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" customHeight="true" ht="20.0">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122326_3</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>茶葉蛋黃(浸泡隔夜)(25g), 荸薺(39g), 高筋麵粉(100g), 鴨皮蛋(36g), 白玉米(100g), 豬頰肉(2022年取樣)(59g)</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (713/703)</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (93.4/90.3)</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (39.7/33.3)</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (20.1/23.2)</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>0.23 (81/350)</t>
+        </is>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (802/1225)</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (364/700)</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (89/108)</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="inlineStr">
+        <is>
+          <t>52.3%</t>
+        </is>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
+        <is>
+          <t>22.3%</t>
+        </is>
+      </c>
+      <c r="M106" s="2" t="inlineStr">
+        <is>
+          <t>25.4%</t>
+        </is>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P106" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q106" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R106" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S106" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" customHeight="true" ht="20.0">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122900_1</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>文蛤(71g), 鯖魚(炒)(25g), 薏仁粉(100g), 青江菜(有機)(7月取樣)(128g), 白玉米(100g), 鵪鶉蛋(29g)</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (673/703)</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (98.3/90.3)</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (30.0/33.3)</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (17.9/23.2)</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (291/350)</t>
+        </is>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (1051/1225)</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (419/700)</t>
+        </is>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>1.48 (160/108)</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>17.8%</t>
+        </is>
+      </c>
+      <c r="M107" s="2" t="inlineStr">
+        <is>
+          <t>23.9%</t>
+        </is>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P107" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q107" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R107" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S107" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" customHeight="true" ht="20.0">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122900_2</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>文蛤(44g), 糙稉米(台稉9號)(135g), 雞蛋黃(黃殼)(35g), 草魚(含皮)(47g)</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (693/703)</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (107.9/90.3)</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (29.1/33.3)</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (16.2/23.2)</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (194/350)</t>
+        </is>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>0.49 (594/1225)</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>0.42 (291/700)</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>1.63 (176/108)</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="inlineStr">
+        <is>
+          <t>62.2%</t>
+        </is>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>16.8%</t>
+        </is>
+      </c>
+      <c r="M108" s="2" t="inlineStr">
+        <is>
+          <t>21.0%</t>
+        </is>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="P108" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q108" s="2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="R108" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S108" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" customHeight="true" ht="20.0">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>20250317_122900_3</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>銀鯧(含皮)(73g), 雞蛋黃(黃殼)(34g), 燕麥片(126g), 鴨皮蛋(39g), 冷凍花椰菜(148g)</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (788/703)</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (91.2/90.3)</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (39.6/33.3)</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>1.27 (29.4/23.2)</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>0.48 (166/350)</t>
+        </is>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (823/1225)</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (533/700)</t>
+        </is>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>1.78 (192/108)</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="inlineStr">
+        <is>
+          <t>46.3%</t>
+        </is>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>20.1%</t>
+        </is>
+      </c>
+      <c r="M109" s="2" t="inlineStr">
+        <is>
+          <t>33.6%</t>
+        </is>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="P109" s="2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="Q109" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R109" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10542,6 +10542,1680 @@
         </is>
       </c>
     </row>
+    <row r="113" customHeight="true" ht="20.0">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>20250317_134956_1</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台南11號)(101g), 二節翅(土雞)(54g), 灰海荷蝹(27g), 紅土帶殼花生(熟)(45g)</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (758/760)</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (86.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (37.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (29.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (187/350)</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>0.31 (374/1225)</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (519/700)</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (147/108)</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>45.8%</t>
+        </is>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>19.6%</t>
+        </is>
+      </c>
+      <c r="M113" s="2" t="inlineStr">
+        <is>
+          <t>34.6%</t>
+        </is>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P113" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q113" s="2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="R113" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S113" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" customHeight="true" ht="20.0">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>20250317_134956_2</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台南11號)(101g), 虱目魚(8月)(62g), 大口逆鈎鰺(27g), 山東大蔥(112g), 尼羅口孵非鯽(去皮)(52g), 敏豆莢(80g), 鯖魚(炒)(36g), 栗子仁(生)(44g)</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (784/760)</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (107.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (48.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (18.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (127/350)</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (1355/1225)</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>0.15 (104/700)</t>
+        </is>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (125/108)</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="inlineStr">
+        <is>
+          <t>54.6%</t>
+        </is>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>24.7%</t>
+        </is>
+      </c>
+      <c r="M114" s="2" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P114" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q114" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R114" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S114" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" customHeight="true" ht="20.0">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>20250317_134956_3</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台南11號)(101g), 敏豆莢(50g), 本島萵苣(有機)(1月取樣)(102g), 雙髻鯊(31g), 紅土帶殼花生(熟)(33g)</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (679/760)</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (92.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (32.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (20.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>0.32 (110/350)</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (987/1225)</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (367/700)</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>1.71 (185/108)</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="inlineStr">
+        <is>
+          <t>54.2%</t>
+        </is>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>18.8%</t>
+        </is>
+      </c>
+      <c r="M115" s="2" t="inlineStr">
+        <is>
+          <t>27.0%</t>
+        </is>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P115" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q115" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R115" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S115" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" customHeight="true" ht="20.0">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>20250317_135023_1</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>去筋麵粉(104g), 鯖魚(烤,150度,20分)(35g), 虱目魚(12月)(55g), 小白菜(有機)(10月取樣)(145g), 斯氏長鰭烏魴(63g), 鯔切片(32g), 鯔(12月,雌魚)(33g)</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (775/760)</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (92.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (48.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (23.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (240/350)</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (1292/1225)</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>0.24 (167/700)</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (93/108)</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="inlineStr">
+        <is>
+          <t>47.5%</t>
+        </is>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>25.1%</t>
+        </is>
+      </c>
+      <c r="M116" s="2" t="inlineStr">
+        <is>
+          <t>27.5%</t>
+        </is>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P116" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q116" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R116" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S116" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" customHeight="true" ht="20.0">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>20250317_135023_2</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>白飯(158g), 牛後腿股肉(51g), 肉雞(50g), 小馬鈴薯(珍珠馬鈴薯)(25g), 毛豆仁(50g), 金針菇(75g), 星斑真鯧(32g), 鴨翅(51g)</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (747/760)</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (80.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>1.38 (49.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (25.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>0.10 (36/350)</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (1247/1225)</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>0.15 (106/700)</t>
+        </is>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (88/108)</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>26.6%</t>
+        </is>
+      </c>
+      <c r="M117" s="2" t="inlineStr">
+        <is>
+          <t>30.5%</t>
+        </is>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P117" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q117" s="2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="R117" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S117" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" customHeight="true" ht="20.0">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>20250317_135023_3</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>白飯(142g), 牛後腿股肉(51g), 肉雞(50g), 牛去骨肩胛小排(54g), 木薯粉(43g), 菲律賓簾蛤(26g)</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (809/760)</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (105.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (36.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (26.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>0.16 (57/350)</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (645/1225)</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>0.29 (201/700)</t>
+        </is>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (54/108)</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="inlineStr">
+        <is>
+          <t>52.3%</t>
+        </is>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>18.1%</t>
+        </is>
+      </c>
+      <c r="M118" s="2" t="inlineStr">
+        <is>
+          <t>29.6%</t>
+        </is>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="P118" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q118" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="R118" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" customHeight="true" ht="20.0">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>20250317_144922_1</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>秈米(台中秈10號)(115g), 鴨蛋黃(25g), 羅氏沼蝦(34g), 狗母魚(蛇鯔)(45g), 豬空腸(59g), 檳榔嫩莖(132g), 珍珠小白菜(100g)</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (749/760)</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (105.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (39.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (19.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (240/350)</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (1390/1225)</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>0.21 (143/700)</t>
+        </is>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (129/108)</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="inlineStr">
+        <is>
+          <t>56.1%</t>
+        </is>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M119" s="2" t="inlineStr">
+        <is>
+          <t>22.8%</t>
+        </is>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P119" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q119" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R119" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S119" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" customHeight="true" ht="20.0">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>20250317_144922_2</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>秈米(台中秈10號)(100g), 銀鯧(3月)(51g), 鱗網帶鰆(含皮)(60g), 山藥(高田)(41g), 亞麻仁籽(25g)</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (733/760)</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (91.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (33.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (25.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>0.21 (73/350)</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (782/1225)</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>0.10 (66/700)</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>1.21 (131/108)</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="M120" s="2" t="inlineStr">
+        <is>
+          <t>31.7%</t>
+        </is>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="P120" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q120" s="2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R120" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S120" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" customHeight="true" ht="20.0">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>20250317_144922_3</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>秈米(台中秈10號)(115g), 銀鯧(3月)(37g), 鱗網帶鰆(含皮)(53g), 花菇(54g), 豌豆莢(60g), 豬上肩肉(66g)</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (772/760)</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (100.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (40.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (23.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>0.13 (43/350)</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (881/1225)</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>0.12 (80/700)</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (84/108)</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>52.1%</t>
+        </is>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M121" s="2" t="inlineStr">
+        <is>
+          <t>26.8%</t>
+        </is>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="P121" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q121" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R121" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S121" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" customHeight="true" ht="20.0">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145047_1</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>玉米粉(111g), 天貝(黃豆)(74g), 正櫻蝦(熟)(64g), 綿羊腹脅肉火鍋片(72g)</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (792/760)</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (105.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (42.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (22.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>1.34 (468/350)</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (628/1225)</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (395/700)</t>
+        </is>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (126/108)</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="inlineStr">
+        <is>
+          <t>53.1%</t>
+        </is>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>21.4%</t>
+        </is>
+      </c>
+      <c r="M122" s="2" t="inlineStr">
+        <is>
+          <t>25.4%</t>
+        </is>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P122" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q122" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R122" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S122" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" customHeight="true" ht="20.0">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145047_2</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>發芽稉米(台稉9號）(100g), 雞蛋黃(黃殼)(48g), 長體油胡瓜魚(26g), 魚翅唇(46g), 翻車魨腹肉(49g), 菱角仁(生)(27g), 鴨蛋黃(33g)</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (746/760)</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (86.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (37.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (27.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (287/350)</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>0.31 (374/1225)</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="inlineStr">
+        <is>
+          <t>0.19 (131/700)</t>
+        </is>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>1.27 (137/108)</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="inlineStr">
+        <is>
+          <t>46.4%</t>
+        </is>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="M123" s="2" t="inlineStr">
+        <is>
+          <t>33.6%</t>
+        </is>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="P123" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q123" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R123" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S123" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" customHeight="true" ht="20.0">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145047_3</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>發芽稉米(台稉9號）(100g), 綠殼菜蛤(32g), 豬小腸(50g), 茶葉蛋(浸泡隔夜)(41g), 山芹菜(100g), 冷凍帶殼花生(熟)(37g), 包心白菜(126g), 冰花(103g), 菱角仁(生)(35g)</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (752/760)</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (98.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (38.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (22.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (298/350)</t>
+        </is>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (1670/1225)</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (919/700)</t>
+        </is>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>2.47 (268/108)</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="inlineStr">
+        <is>
+          <t>52.3%</t>
+        </is>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>20.2%</t>
+        </is>
+      </c>
+      <c r="M124" s="2" t="inlineStr">
+        <is>
+          <t>27.4%</t>
+        </is>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="P124" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q124" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R124" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S124" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" customHeight="true" ht="20.0">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145155_1</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>高筋麵粉(131g), 日本馬頭魚(44g), 魩仔魚(25g), 甜椒(紅皮)(111g), 雞腿菇(乾)(54g), 鴨血(50g), 二節翅(肉雞)(58g), 鯖魚(炒)(25g), 珊瑚菇(60g), 白鳳豆(進口)(70g), 冷凍菠菜(103g), 雞蛋黃平均值(59g), 帶骨牛小排(57g), 綠豆仁(91g), 枸杞乾(126g), 三節翅(土雞)(99g)</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>3.44 (2619/760)</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>3.47 (339.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>4.12 (148.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>2.97 (74.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (417/350)</t>
+        </is>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>5.86 (7183/1225)</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>1.67 (1171/700)</t>
+        </is>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>5.36 (581/108)</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="inlineStr">
+        <is>
+          <t>51.8%</t>
+        </is>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>22.6%</t>
+        </is>
+      </c>
+      <c r="M125" s="2" t="inlineStr">
+        <is>
+          <t>25.6%</t>
+        </is>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="P125" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="Q125" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R125" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S125" s="2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" customHeight="true" ht="20.0">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145155_2</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>高筋麵粉(139g), 日本馬頭魚(44g), 魩仔魚(25g), 甜椒(紅皮)(111g), 雞腿菇(乾)(54g), 鴨血(50g), 宜蘭粉蔥(100g), 冷凍菠菜(103g), 雞蛋黃平均值(59g), 綠豆仁(91g), 枸杞乾(126g), 鬍鯰(65g), 鯔(含皮)(43g), 白鳳豆平均值(99g), 二節翅平均值(68g)</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>3.26 (2477/760)</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>3.71 (362.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>4.16 (149.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>1.90 (47.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>1.45 (508/350)</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>6.02 (7372/1225)</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>1.57 (1099/700)</t>
+        </is>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>5.72 (620/108)</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="inlineStr">
+        <is>
+          <t>58.5%</t>
+        </is>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>24.2%</t>
+        </is>
+      </c>
+      <c r="M126" s="2" t="inlineStr">
+        <is>
+          <t>17.4%</t>
+        </is>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="P126" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="Q126" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R126" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S126" s="2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" customHeight="true" ht="20.0">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145155_3</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>高筋麵粉(139g), 雞蛋黃平均值(25g), 豬油渣(78g), 白蘿蔔平均值(100g), 杏鮑菇(大)(53g), 鯖魚(烤,150度,10分)(40g), 白馬頭魚(49g), 魩仔魚(25g), 白鳳豆(進口)(70g), 豬小腸(50g), 冷凍菠菜(103g), 綠豆仁(91g), 枸杞乾(126g), 鴨腸(74g)</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>3.50 (2660/760)</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>3.16 (308.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>3.52 (126.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>4.08 (102.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (383/350)</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>3.94 (4825/1225)</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>1.58 (1109/700)</t>
+        </is>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>4.69 (508/108)</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="inlineStr">
+        <is>
+          <t>46.3%</t>
+        </is>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
+      <c r="M127" s="2" t="inlineStr">
+        <is>
+          <t>34.7%</t>
+        </is>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="P127" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q127" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R127" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S127" s="2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" customHeight="true" ht="20.0">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145512_1</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(100g), 甘扁桃仁(熟)(25g), 黑烏參(25g), 栗子南瓜(119g), 刺鯧(去皮)(29g), 台灣鯛魚片(烤,190℃,20分鐘)(41g), 棒棒腿(肉雞)(51g), 九孔螺(28g), 銀杏果(34g), 麒麟菜(37g)</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (706/760)</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (70.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (41.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (28.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>0.40 (138/350)</t>
+        </is>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (1473/1225)</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (252/700)</t>
+        </is>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>1.75 (190/108)</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="inlineStr">
+        <is>
+          <t>40.1%</t>
+        </is>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>23.4%</t>
+        </is>
+      </c>
+      <c r="M128" s="2" t="inlineStr">
+        <is>
+          <t>36.5%</t>
+        </is>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P128" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q128" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R128" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S128" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" customHeight="true" ht="20.0">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145512_2</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(100g), 山藥(大汕1號)(56g), 乾百合鱗片(100g), 牛紐約客火鍋片(50g), 銀鯧(5月)(55g)</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (731/760)</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (100.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (35.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (20.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>0.13 (45/350)</t>
+        </is>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>1.70 (2084/1225)</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (306/700)</t>
+        </is>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (100/108)</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="inlineStr">
+        <is>
+          <t>54.9%</t>
+        </is>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>19.3%</t>
+        </is>
+      </c>
+      <c r="M129" s="2" t="inlineStr">
+        <is>
+          <t>25.7%</t>
+        </is>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P129" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q129" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R129" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S129" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" customHeight="true" ht="20.0">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>20250317_145512_3</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(100g), 斑點九刺鮨(去皮)(27g), 九孔螺(28g), 銀杏果(29g), 銀鯧(5月)(67g), 櫻桃小番茄(127g), 豬小里肌(98g), 尖嘴鱸(去皮)(28g), 毛豆莢(高雄13號)(70g)</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (637/760)</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (52.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>1.68 (60.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (20.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>0.30 (106/350)</t>
+        </is>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>1.65 (2019/1225)</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (443/700)</t>
+        </is>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>1.72 (186/108)</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="inlineStr">
+        <is>
+          <t>32.8%</t>
+        </is>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>37.8%</t>
+        </is>
+      </c>
+      <c r="M130" s="2" t="inlineStr">
+        <is>
+          <t>29.4%</t>
+        </is>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="P130" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q130" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R130" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S130" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S130"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -12216,6 +12216,2796 @@
         </is>
       </c>
     </row>
+    <row r="131" customHeight="true" ht="20.0">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161736_1</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>秈米平均值(100g), 花尾唇指翁(翁加魚邊)(42g), 煙台白菜(125g), 鴨腿(50g), 條紋狼鱸(36g), 魟魚(72g), 日本竹筴魚(39g), 蛙形蟹(30g)</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (769/760)</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (83.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>1.88 (67.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (18.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="inlineStr">
+        <is>
+          <t>0.49 (172/350)</t>
+        </is>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (1194/1225)</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (420/700)</t>
+        </is>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>1.30 (140/108)</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="inlineStr">
+        <is>
+          <t>43.6%</t>
+        </is>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>35.1%</t>
+        </is>
+      </c>
+      <c r="M131" s="2" t="inlineStr">
+        <is>
+          <t>21.4%</t>
+        </is>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P131" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q131" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R131" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S131" s="2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" customHeight="true" ht="20.0">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161736_2</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>秈米平均值(100g), 鯖魚(炸)(27g), 隼人瓜(2023年取樣)(189g), 斯氏長鰭烏魴(66g), 青江菜(土植)(3月取樣)(134g), 虱目魚(5月)(34g), 香菇(小)(68g), 紅蝦仁(29g)</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (715/760)</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (92.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (42.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (19.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (203/350)</t>
+        </is>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (1440/1225)</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="inlineStr">
+        <is>
+          <t>0.43 (302/700)</t>
+        </is>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (124/108)</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="inlineStr">
+        <is>
+          <t>51.8%</t>
+        </is>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>23.6%</t>
+        </is>
+      </c>
+      <c r="M132" s="2" t="inlineStr">
+        <is>
+          <t>24.6%</t>
+        </is>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P132" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q132" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R132" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S132" s="2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" customHeight="true" ht="20.0">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161736_3</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>秈米平均值(100g), 花尾唇指翁(翁加魚邊)(35g), 珊瑚菇(84g), 螳螂蝦(26g), 大芥菜(100g), 煙台白菜(118g), 冬瓜(2022年取樣)(183g), 鴨腿(64g), 豇豆(莢)(50g), 雞蛋(高維生素E)(33g)</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (777/760)</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (103.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (41.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (22.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (228/350)</t>
+        </is>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>1.26 (1545/1225)</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="inlineStr">
+        <is>
+          <t>0.42 (296/700)</t>
+        </is>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (139/108)</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="inlineStr">
+        <is>
+          <t>53.2%</t>
+        </is>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M133" s="2" t="inlineStr">
+        <is>
+          <t>25.8%</t>
+        </is>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P133" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q133" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="R133" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S133" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" customHeight="true" ht="20.0">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161852_1</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>秈米(台中在來2號)(126g), 帶骨去皮對切胸(肉雞)(56g), 礁膜(25g), 紫菜(25g), 馬鈴薯(34g), 花身副麗魚(53g), 犬牙南極魚切片(27g)</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (734/760)</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (115.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>1.21 (43.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (11.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (125/350)</t>
+        </is>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (1387/1225)</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>0.49 (339/700)</t>
+        </is>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>1.91 (207/108)</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="inlineStr">
+        <is>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>23.7%</t>
+        </is>
+      </c>
+      <c r="M134" s="2" t="inlineStr">
+        <is>
+          <t>13.7%</t>
+        </is>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="P134" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q134" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R134" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S134" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" customHeight="true" ht="20.0">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161852_2</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>秈米(台中在來2號)(103g), 熟蓮藕(35g), 黑棘鯛(含皮)(36g), 布氏鯧鰺(去皮)(25g), 雙髻鯊腹肉(32g), 日本花鱸((12月)(37g), 翻車魨腹肉(25g), 花身副麗魚(53g), 犬牙南極魚切片(27g), 青星九刺鮨(39g), 青嘴龍占魚(26g), 范氏副葉鰺(40g), 麒麟菜(36g)</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (816/760)</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (87.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>2.05 (73.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (18.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>0.39 (137/350)</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (1423/1225)</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (254/700)</t>
+        </is>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>1.30 (141/108)</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="inlineStr">
+        <is>
+          <t>43.1%</t>
+        </is>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>36.1%</t>
+        </is>
+      </c>
+      <c r="M135" s="2" t="inlineStr">
+        <is>
+          <t>20.8%</t>
+        </is>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="P135" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="Q135" s="2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="R135" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S135" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" customHeight="true" ht="20.0">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161852_3</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>甜玉米(100g), 熟蓮藕(35g), 紅豆(53g), 珍珠苦瓜(102g), 雞水煮蛋黃(28g), 杏鮑菇(中)(54g), 去皮清肉(土雞)(56g), 日本花鱸((12月)(35g), 鵪鶉皮蛋(27g), 海帶茸(45g), 雞蛋(高維生素A&amp;E)(34g), 北方長額蝦(加工)(31g)</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (685/760)</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (68.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>1.55 (55.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (20.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (278/350)</t>
+        </is>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>1.48 (1811/1225)</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (648/700)</t>
+        </is>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>2.12 (230/108)</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="inlineStr">
+        <is>
+          <t>40.2%</t>
+        </is>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>32.5%</t>
+        </is>
+      </c>
+      <c r="M136" s="2" t="inlineStr">
+        <is>
+          <t>27.3%</t>
+        </is>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="P136" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q136" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R136" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S136" s="2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" customHeight="true" ht="20.0">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161910_1</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>秈米平均值(100g), 翻車魨腹肉(42g), 冷凍木耳(55g), 黃豆(50g), 鴨皮蛋(53g)</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (722/760)</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (105.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (39.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (16.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (175/350)</t>
+        </is>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (1103/1225)</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (364/700)</t>
+        </is>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>1.56 (169/108)</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="inlineStr">
+        <is>
+          <t>58.3%</t>
+        </is>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>21.8%</t>
+        </is>
+      </c>
+      <c r="M137" s="2" t="inlineStr">
+        <is>
+          <t>19.9%</t>
+        </is>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P137" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q137" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R137" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S137" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" customHeight="true" ht="20.0">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161910_2</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>薏仁(134g), 干貝(冷凍)(36g), 青江菜(土植)(3月取樣)(148g), 豬頸肉(71g)</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (747/760)</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (93.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (37.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (25.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="inlineStr">
+        <is>
+          <t>0.48 (167/350)</t>
+        </is>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (871/1225)</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (453/700)</t>
+        </is>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>2.31 (250/108)</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="inlineStr">
+        <is>
+          <t>49.8%</t>
+        </is>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="M138" s="2" t="inlineStr">
+        <is>
+          <t>30.1%</t>
+        </is>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="P138" s="2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="Q138" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R138" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S138" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" customHeight="true" ht="20.0">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161910_3</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>紫玉米(140g), 帶骨去皮對切胸(肉雞)(52g), 斑鱧(38g), 蟹腳肉(54g), 檳榔心芋(49g), 毛鱗魚(27g), 翅腿(肉雞)(51g), 豬頸肉(51g)</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (699/760)</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (63.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>1.49 (53.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (25.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (287/350)</t>
+        </is>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (1142/1225)</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (508/700)</t>
+        </is>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (124/108)</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="inlineStr">
+        <is>
+          <t>36.4%</t>
+        </is>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
+        <is>
+          <t>30.6%</t>
+        </is>
+      </c>
+      <c r="M139" s="2" t="inlineStr">
+        <is>
+          <t>33.1%</t>
+        </is>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P139" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="Q139" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="R139" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S139" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" customHeight="true" ht="20.0">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161950_1</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>燕麥(100g), 魚翅唇(45g), 大西洋鮭魚(台灣養殖)(26g), 單角革單棘魨(含皮)(40g), 泥螺(28g), 前鱗笛鯛(41g), 台灣鯛魚片(生)(2021年)(34g), 海帶梗(29g), 鮸(44g), 本島萵苣(土植)(10月取樣)(102g), 蟹腳肉(25g), 虱目魚平均值(去皮)(69g)</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (792/760)</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (72.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>2.20 (79.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (20.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (218/350)</t>
+        </is>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>1.24 (1523/1225)</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (389/700)</t>
+        </is>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>2.30 (249/108)</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="inlineStr">
+        <is>
+          <t>36.3%</t>
+        </is>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="M140" s="2" t="inlineStr">
+        <is>
+          <t>23.7%</t>
+        </is>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P140" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q140" s="2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R140" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S140" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" customHeight="true" ht="20.0">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161950_2</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>燕麥(100g), 魚翅唇(45g), 大西洋鮭魚(台灣養殖)(26g), 單角革單棘魨(含皮)(40g), 泥螺(28g), 前鱗笛鯛(41g), 台灣鯛魚片(生)(2021年)(34g), 海帶梗(29g), 鯔(8月)(25g), 蟹腳肉(26g), 台灣鯛魚片(水煮)(56g), 薔薇項鰭魚(去皮)(34g)</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (779/760)</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>0.72 (70.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>2.16 (77.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (20.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (189/350)</t>
+        </is>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (1109/1225)</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (423/700)</t>
+        </is>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>2.12 (229/108)</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="inlineStr">
+        <is>
+          <t>36.1%</t>
+        </is>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
+        <is>
+          <t>39.8%</t>
+        </is>
+      </c>
+      <c r="M141" s="2" t="inlineStr">
+        <is>
+          <t>24.0%</t>
+        </is>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P141" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q141" s="2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="R141" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S141" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" customHeight="true" ht="20.0">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>20250321_161950_3</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台南11號)(101g), 喜來菇(50g), 菠菜(葉)(有機)(100g), 高山大豌豆莢(80g), 荷包蛋(不加油)(43g), 甜椒(青皮)(128g), 二節翅平均值(50g), 大口逆鈎鰺(38g)</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (712/760)</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (100.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (40.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (16.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (297/350)</t>
+        </is>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>1.26 (1542/1225)</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>0.41 (287/700)</t>
+        </is>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>2.28 (246/108)</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="inlineStr">
+        <is>
+          <t>56.5%</t>
+        </is>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>22.8%</t>
+        </is>
+      </c>
+      <c r="M142" s="2" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="P142" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q142" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="R142" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S142" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" customHeight="true" ht="20.0">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162005_1</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台農71號)(100g), 冷凍菠菜(152g), 宜蘭粉蔥(106g), 甜椒(黃皮)(101g), 鯖魚(烤,150度,10分)(25g), 鯖魚(生)(26g), 魩仔魚(加工,大)(26g), 旗魚腹肉(51g)</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (724/760)</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (94.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (38.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (21.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (254/350)</t>
+        </is>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (963/1225)</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (391/700)</t>
+        </is>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>1.58 (171/108)</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="inlineStr">
+        <is>
+          <t>52.1%</t>
+        </is>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M143" s="2" t="inlineStr">
+        <is>
+          <t>26.9%</t>
+        </is>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P143" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q143" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R143" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S143" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" customHeight="true" ht="20.0">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162005_2</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>薏仁(101g), 松茸白菇(50g), 鯖魚(生)(41g), 山藥(白肉)(28g), 橫紋九刺鮨(41g), 魩仔魚(加工,大)(26g), 旗魚腹肉(51g), 中國對蝦(44g)</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (735/760)</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (74.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>1.57 (56.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (23.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (152/350)</t>
+        </is>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (1038/1225)</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (433/700)</t>
+        </is>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>2.53 (274/108)</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="inlineStr">
+        <is>
+          <t>40.4%</t>
+        </is>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
+        <is>
+          <t>30.7%</t>
+        </is>
+      </c>
+      <c r="M144" s="2" t="inlineStr">
+        <is>
+          <t>28.9%</t>
+        </is>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P144" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q144" s="2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="R144" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S144" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" customHeight="true" ht="20.0">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162005_3</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>高纖米(104g), 鳳尾蝦仁(52g), 雞水煮蛋白(26g), 香芫荽(100g), 白帶魚(29g), 鯖魚(生)(41g), 馬鈴薯(53g), 黑棘鯛(去皮)(44g)</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (741/760)</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (91.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>1.21 (43.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (22.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>0.38 (132/350)</t>
+        </is>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (1174/1225)</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (367/700)</t>
+        </is>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>1.67 (181/108)</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="inlineStr">
+        <is>
+          <t>49.3%</t>
+        </is>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>23.4%</t>
+        </is>
+      </c>
+      <c r="M145" s="2" t="inlineStr">
+        <is>
+          <t>27.3%</t>
+        </is>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P145" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q145" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R145" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S145" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" customHeight="true" ht="20.0">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162026_1</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>越光米(台南16號)(2024年取樣)(102g), 青江菜(有機)(10月取樣)(147g), 大西洋鮭魚腹肉(53g), 香芫荽(177g), 雞皮蛋(35g), 冷凍木耳(54g), 鮟鱇魚肝(40g)</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (745/760)</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (100.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (32.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (23.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (355/350)</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (1114/1225)</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>0.71 (497/700)</t>
+        </is>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (123/108)</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="inlineStr">
+        <is>
+          <t>53.8%</t>
+        </is>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>17.6%</t>
+        </is>
+      </c>
+      <c r="M146" s="2" t="inlineStr">
+        <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P146" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q146" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R146" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S146" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" customHeight="true" ht="20.0">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162026_2</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>米胚芽(125g), 秀珍菇(54g), 本島萵苣(土植)(10月取樣)(174g), 香芫荽(177g), 雞皮蛋(35g), 蒸蛋(電鍋)(31g)</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (660/760)</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (81.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (35.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (21.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (309/350)</t>
+        </is>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>2.24 (2743/1225)</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (384/700)</t>
+        </is>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>7.10 (770/108)</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="inlineStr">
+        <is>
+          <t>49.0%</t>
+        </is>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="M147" s="2" t="inlineStr">
+        <is>
+          <t>29.5%</t>
+        </is>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="P147" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q147" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R147" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S147" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" customHeight="true" ht="20.0">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162026_3</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>越光米(台南16號)(2024年取樣)(113g), 大西洋鮭魚腹肉(37g), 香芫荽(177g), 雞皮蛋(35g), 冷凍木耳(54g), 鮟鱇魚肝(40g)</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (701/760)</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (105.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (28.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (18.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (218/350)</t>
+        </is>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (696/1225)</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (457/700)</t>
+        </is>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (94/108)</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="inlineStr">
+        <is>
+          <t>59.8%</t>
+        </is>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
+        <is>
+          <t>16.3%</t>
+        </is>
+      </c>
+      <c r="M148" s="2" t="inlineStr">
+        <is>
+          <t>23.9%</t>
+        </is>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P148" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q148" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R148" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S148" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" customHeight="true" ht="20.0">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162105_1</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>燕麥(148g), 灰海荷蝹(49g), 豬下肩肉(77g)</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (796/760)</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (99.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (40.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (26.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (299/350)</t>
+        </is>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (693/1225)</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (392/700)</t>
+        </is>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>1.86 (201/108)</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
+        <is>
+          <t>20.3%</t>
+        </is>
+      </c>
+      <c r="M149" s="2" t="inlineStr">
+        <is>
+          <t>29.6%</t>
+        </is>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P149" s="2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="Q149" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="R149" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S149" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" customHeight="true" ht="20.0">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162105_2</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>糯高梁(100g), 小白菜(有機)(7月取樣)(152g), 豬肩胛排(72g), 豬下肩肉(77g)</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (658/760)</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (78.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (39.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (20.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (232/350)</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (996/1225)</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>0.23 (161/700)</t>
+        </is>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (73/108)</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="inlineStr">
+        <is>
+          <t>47.6%</t>
+        </is>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
+        <is>
+          <t>24.0%</t>
+        </is>
+      </c>
+      <c r="M150" s="2" t="inlineStr">
+        <is>
+          <t>28.4%</t>
+        </is>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P150" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q150" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R150" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S150" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" customHeight="true" ht="20.0">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162105_3</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>雙色水果玉米(136g), 灰海荷蝹(49g), 青江菜(水耕)(10月取樣)(172g), 韮菜(149g), 鱗網帶鰆(含皮)(74g)</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (444/760)</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>0.33 (32.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (33.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (20.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>1.51 (528/350)</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>1.25 (1531/1225)</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (395/700)</t>
+        </is>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>1.67 (181/108)</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="inlineStr">
+        <is>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
+        <is>
+          <t>29.8%</t>
+        </is>
+      </c>
+      <c r="M151" s="2" t="inlineStr">
+        <is>
+          <t>41.4%</t>
+        </is>
+      </c>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P151" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="Q151" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R151" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S151" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" customHeight="true" ht="20.0">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162119_1</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>糙稉米(台稉9號)(118g), 雞蛋(高DHA)(66g), 雪螺(73g), 雞皮蛋平均值(72g), 雞水波蛋(58g), 真鯛平均值(去皮)(40g)</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (715/760)</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (84.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (46.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (21.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (347/350)</t>
+        </is>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (662/1225)</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (647/700)</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>1.64 (177/108)</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="inlineStr">
+        <is>
+          <t>47.1%</t>
+        </is>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="M152" s="2" t="inlineStr">
+        <is>
+          <t>26.9%</t>
+        </is>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P152" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q152" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R152" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S152" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" customHeight="true" ht="20.0">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162119_2</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>小米(105g), 初卵雞蛋(40g), 雞皮蛋平均值(72g), 雞水波蛋(59g), 真鯛平均值(去皮)(40g), 西施舌(48g)</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (698/760)</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (81.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>1.26 (45.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (21.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G153" s="2" t="inlineStr">
+        <is>
+          <t>0.27 (93/350)</t>
+        </is>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (636/1225)</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (573/700)</t>
+        </is>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>1.86 (201/108)</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="inlineStr">
+        <is>
+          <t>46.5%</t>
+        </is>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
+        <is>
+          <t>25.9%</t>
+        </is>
+      </c>
+      <c r="M153" s="2" t="inlineStr">
+        <is>
+          <t>27.7%</t>
+        </is>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P153" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q153" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R153" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S153" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" customHeight="true" ht="20.0">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162119_3</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>雙色水果玉米(100g), 大西洋鮭魚腹肉(55g), 山羊帶皮羊肉塊(59g), 茶葉蛋白(浸泡隔夜)(29g), 蒲瓜平均值(144g), 乾百合鱗片(100g), 水耕波士頓萵苣(144g)</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (790/760)</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (95.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (42.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (26.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (124/350)</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>2.05 (2511/1225)</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>0.47 (326/700)</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (132/108)</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="inlineStr">
+        <is>
+          <t>48.3%</t>
+        </is>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
+        <is>
+          <t>21.4%</t>
+        </is>
+      </c>
+      <c r="M154" s="2" t="inlineStr">
+        <is>
+          <t>30.3%</t>
+        </is>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P154" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q154" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R154" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S154" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" customHeight="true" ht="20.0">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162134_1</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>冷凍玉米粒(163g), 鵝肝(100g), 大黃魚(41g), 山蘇菜(192g)</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (523/760)</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>0.47 (45.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (38.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (20.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="inlineStr">
+        <is>
+          <t>0.30 (105/350)</t>
+        </is>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>1.93 (2366/1225)</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (431/700)</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (132/108)</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="inlineStr">
+        <is>
+          <t>35.0%</t>
+        </is>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
+        <is>
+          <t>29.2%</t>
+        </is>
+      </c>
+      <c r="M155" s="2" t="inlineStr">
+        <is>
+          <t>35.8%</t>
+        </is>
+      </c>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="P155" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q155" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R155" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S155" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" customHeight="true" ht="20.0">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162134_2</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>米胚芽(151g), 荷葉白菜(130g), 日本花鱸((3月)(48g), 鬚赤蝦仁(74g)</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (717/760)</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (83.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>1.38 (49.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (20.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (268/350)</t>
+        </is>
+      </c>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>2.12 (2599/1225)</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (363/700)</t>
+        </is>
+      </c>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>9.88 (1071/108)</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="inlineStr">
+        <is>
+          <t>46.5%</t>
+        </is>
+      </c>
+      <c r="L156" s="2" t="inlineStr">
+        <is>
+          <t>27.7%</t>
+        </is>
+      </c>
+      <c r="M156" s="2" t="inlineStr">
+        <is>
+          <t>25.8%</t>
+        </is>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="P156" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q156" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R156" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S156" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" customHeight="true" ht="20.0">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162134_3</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>米胚芽(154g), 鵝肝(92g), 翻車魨魚皮(32g)</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (724/760)</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (82.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (47.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (23.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="inlineStr">
+        <is>
+          <t>0.22 (75/350)</t>
+        </is>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>2.59 (3175/1225)</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (433/700)</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>7.98 (866/108)</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="inlineStr">
+        <is>
+          <t>45.3%</t>
+        </is>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="M157" s="2" t="inlineStr">
+        <is>
+          <t>28.7%</t>
+        </is>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P157" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q157" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="R157" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S157" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" customHeight="true" ht="20.0">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162154_1</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉2號)(111g), 鮟鱇魚肝(44g), 章魚(33g), 小白菜(土植)(1月取樣)(100g), 豬腹脇排(80g), 本島萵苣(土植)(3月取樣)(187g)</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (725/760)</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (97.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (35.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (21.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (180/350)</t>
+        </is>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (1323/1225)</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="inlineStr">
+        <is>
+          <t>0.49 (341/700)</t>
+        </is>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (104/108)</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="inlineStr">
+        <is>
+          <t>53.6%</t>
+        </is>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>19.3%</t>
+        </is>
+      </c>
+      <c r="M158" s="2" t="inlineStr">
+        <is>
+          <t>27.1%</t>
+        </is>
+      </c>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="P158" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q158" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R158" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S158" s="2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" customHeight="true" ht="20.0">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162154_2</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>白飯(179g), 尼羅口孵非鯽(含皮)(2022年取樣)(28g), 青江菜(土植)(1月取樣)(198g), 牛小排平均值(100g), 雙帶鰺(25g)</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (728/760)</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (77.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (34.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>1.24 (31.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (374/350)</t>
+        </is>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (773/1225)</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="inlineStr">
+        <is>
+          <t>0.34 (236/700)</t>
+        </is>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (70/108)</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="inlineStr">
+        <is>
+          <t>42.5%</t>
+        </is>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
+      <c r="M159" s="2" t="inlineStr">
+        <is>
+          <t>38.5%</t>
+        </is>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P159" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q159" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R159" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S159" s="2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" customHeight="true" ht="20.0">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>20250321_162154_3</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>白玉米(110g), 亞麻仁籽粉(40g), 乾木耳平均值(61g), 魚翅唇(46g), 日本竹筴魚(75g), 雙帶鰺(25g), 泡魷魚(59g), 章魚(33g), 台灣鯛魚片(烤,230℃,20分鐘)(27g)</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (754/760)</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (72.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>1.83 (65.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (22.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="inlineStr">
+        <is>
+          <t>1.50 (525/350)</t>
+        </is>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>1.65 (2018/1225)</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (356/700)</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>3.34 (362/108)</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="inlineStr">
+        <is>
+          <t>38.4%</t>
+        </is>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>35.0%</t>
+        </is>
+      </c>
+      <c r="M160" s="2" t="inlineStr">
+        <is>
+          <t>26.6%</t>
+        </is>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="P160" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="Q160" s="2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="R160" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S160" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:S163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -15006,6 +15006,285 @@
         </is>
       </c>
     </row>
+    <row r="161" customHeight="true" ht="20.0">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>20250321_173922_1</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>稉米平均值(100g), 青星九刺鮨魚片(58g), 雞水波蛋(33g), 竹蟶(冷凍)(46g), 大番茄平均值(綠色系)(149g), 牛五花肉火鍋片(51g), 菾菜(101g), 檳榔心芋(2021年取樣)(28g)</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (775/760)</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (96.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (39.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>1.02 (25.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="inlineStr">
+        <is>
+          <t>0.31 (108/350)</t>
+        </is>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (1283/1225)</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (424/700)</t>
+        </is>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>1.40 (152/108)</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="inlineStr">
+        <is>
+          <t>49.9%</t>
+        </is>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>20.3%</t>
+        </is>
+      </c>
+      <c r="M161" s="2" t="inlineStr">
+        <is>
+          <t>29.8%</t>
+        </is>
+      </c>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P161" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q161" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R161" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S161" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" customHeight="true" ht="20.0">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>20250321_173922_2</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台中189號)(106g), 山藥(大汕3號)(26g), 棒棒腿(土雞)(50g), 大西洋鮭魚腹肉(64g), 根菾菜根(100g), 鴨蛋白(52g)</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (731/760)</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (93.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (36.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (23.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="inlineStr">
+        <is>
+          <t>0.04 (15/350)</t>
+        </is>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (813/1225)</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (435/700)</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (60/108)</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="inlineStr">
+        <is>
+          <t>51.1%</t>
+        </is>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>19.9%</t>
+        </is>
+      </c>
+      <c r="M162" s="2" t="inlineStr">
+        <is>
+          <t>29.0%</t>
+        </is>
+      </c>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="P162" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q162" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R162" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S162" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" customHeight="true" ht="20.0">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>20250321_173922_3</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台中189號)(111g), 白鳳菜(104g), 芹菜(100g), 檳榔心芋(2021年取樣)(30g), 山藥(大汕3號)(26g), 柴魚片(34g), 星雞魚(32g), 鵝胸肉(56g), 棒棒腿(土雞)(50g), 大西洋鮭魚腹肉(45g)</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (932/760)</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (107.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>2.11 (75.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (21.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (202/350)</t>
+        </is>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>1.58 (1931/1225)</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (420/700)</t>
+        </is>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>1.46 (158/108)</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="inlineStr">
+        <is>
+          <t>46.3%</t>
+        </is>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>32.5%</t>
+        </is>
+      </c>
+      <c r="M163" s="2" t="inlineStr">
+        <is>
+          <t>21.2%</t>
+        </is>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="P163" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q163" s="2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R163" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S163" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S163"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -15285,6 +15285,1122 @@
         </is>
       </c>
     </row>
+    <row r="164" customHeight="true" ht="20.0">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>20250321_175014_1</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>白飯(158g), 後刺尾鯛(25g), 日本銀帶鯡(加工)(39g), 芋心甘藷(27g), 白蠔菇(62g), 真烏賊(大)(50g), 去骨牛小排(78g)</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (657/760)</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (77.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (40.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (20.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G164" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (303/350)</t>
+        </is>
+      </c>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (774/1225)</t>
+        </is>
+      </c>
+      <c r="I164" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (436/700)</t>
+        </is>
+      </c>
+      <c r="J164" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (114/108)</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="inlineStr">
+        <is>
+          <t>47.0%</t>
+        </is>
+      </c>
+      <c r="L164" s="2" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+      <c r="M164" s="2" t="inlineStr">
+        <is>
+          <t>28.5%</t>
+        </is>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="P164" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q164" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R164" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S164" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" customHeight="true" ht="20.0">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>20250321_175014_2</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>紅藜麥(133g), 後刺尾鯛(25g), 日本銀帶鯡(加工)(39g), 芋心甘藷(27g), 鵝心(69g)</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (762/760)</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (97.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (39.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (23.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G165" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (337/350)</t>
+        </is>
+      </c>
+      <c r="H165" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (1455/1225)</t>
+        </is>
+      </c>
+      <c r="I165" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (386/700)</t>
+        </is>
+      </c>
+      <c r="J165" s="2" t="inlineStr">
+        <is>
+          <t>2.58 (279/108)</t>
+        </is>
+      </c>
+      <c r="K165" s="2" t="inlineStr">
+        <is>
+          <t>50.9%</t>
+        </is>
+      </c>
+      <c r="L165" s="2" t="inlineStr">
+        <is>
+          <t>20.9%</t>
+        </is>
+      </c>
+      <c r="M165" s="2" t="inlineStr">
+        <is>
+          <t>28.2%</t>
+        </is>
+      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="P165" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q165" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R165" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S165" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" customHeight="true" ht="20.0">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>20250321_175014_3</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>玉米粉(100g), 本島萵苣(有機)(1月取樣)(101g), 日本茼蒿(有機)(100g), 白鳳菜(100g), 雞蛋白(白殼)(28g), 山芹菜(177g), 烏骨雞蛋白(26g), 豬頸肉(73g)</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (722/760)</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (110.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (28.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (18.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (471/350)</t>
+        </is>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>1.98 (2421/1225)</t>
+        </is>
+      </c>
+      <c r="I166" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (394/700)</t>
+        </is>
+      </c>
+      <c r="J166" s="2" t="inlineStr">
+        <is>
+          <t>1.91 (206/108)</t>
+        </is>
+      </c>
+      <c r="K166" s="2" t="inlineStr">
+        <is>
+          <t>61.3%</t>
+        </is>
+      </c>
+      <c r="L166" s="2" t="inlineStr">
+        <is>
+          <t>15.5%</t>
+        </is>
+      </c>
+      <c r="M166" s="2" t="inlineStr">
+        <is>
+          <t>23.1%</t>
+        </is>
+      </c>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P166" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q166" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R166" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S166" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" customHeight="true" ht="20.0">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>20250321_180029_1</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>白飯(157g), 草對蝦(26g), 山藥(白皮削)(29g), 文蛤(28g), 黃鰭棘鯛(33g), 豆漿(無糖)(76g), 原味夏威夷豆(31g), 冷凍洋菇(53g), 紅蟳(46g)</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (739/760)</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (81.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (37.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (29.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="inlineStr">
+        <is>
+          <t>0.34 (118/350)</t>
+        </is>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (860/1225)</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (354/700)</t>
+        </is>
+      </c>
+      <c r="J167" s="2" t="inlineStr">
+        <is>
+          <t>1.30 (141/108)</t>
+        </is>
+      </c>
+      <c r="K167" s="2" t="inlineStr">
+        <is>
+          <t>44.3%</t>
+        </is>
+      </c>
+      <c r="L167" s="2" t="inlineStr">
+        <is>
+          <t>20.3%</t>
+        </is>
+      </c>
+      <c r="M167" s="2" t="inlineStr">
+        <is>
+          <t>35.4%</t>
+        </is>
+      </c>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P167" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q167" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="R167" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S167" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" customHeight="true" ht="20.0">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>20250321_180029_2</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>越光米(104g), 鬍鯰(41g), 雞蛋(白殼)(50g), 山藥(白皮削)(29g), 文蛤(36g), 鯖魚(炒)(42g), 綠皮蛇瓜(100g), 克氏兔頭魨(29g), 葉唇笛鯛(38g), 豬小里肌(51g), 小黃魚(去皮)(53g)</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>1.21 (918/760)</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (88.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>1.88 (67.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (32.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="inlineStr">
+        <is>
+          <t>0.43 (151/350)</t>
+        </is>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (1373/1225)</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (419/700)</t>
+        </is>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (122/108)</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="inlineStr">
+        <is>
+          <t>38.3%</t>
+        </is>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
+        <is>
+          <t>29.4%</t>
+        </is>
+      </c>
+      <c r="M168" s="2" t="inlineStr">
+        <is>
+          <t>32.3%</t>
+        </is>
+      </c>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="P168" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="Q168" s="2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R168" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S168" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" customHeight="true" ht="20.0">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>20250321_180029_3</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>白玉米(100g), 柳松菇(58g), 豬皮(51g), 油菜心(100g), 雞蛋(白殼)(36g), 帶骨牛小排(58g), 雞滷蛋黃(浸泡隔夜)(26g), 皇宮菜(100g)</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (755/760)</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>0.24 (23.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (39.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>2.23 (56.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (225/350)</t>
+        </is>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (1147/1225)</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (400/700)</t>
+        </is>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>1.25 (136/108)</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="inlineStr">
+        <is>
+          <t>12.6%</t>
+        </is>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>20.6%</t>
+        </is>
+      </c>
+      <c r="M169" s="2" t="inlineStr">
+        <is>
+          <t>66.7%</t>
+        </is>
+      </c>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="P169" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="Q169" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R169" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S169" s="2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" customHeight="true" ht="20.0">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>20250321_190101_1</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>稉型糯米(台稉糯1號)(104g), 正櫻蝦(生)(38g), 日本花鱸((12月)(49g), 金女小番茄(103g), 鯖魚(蒸)(49g), 珊瑚菇(75g), 芥菜平均值(141g)</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (726/760)</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (96.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (38.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (21.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (440/385)</t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (1510/1470)</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (231/420)</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (134/122)</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="inlineStr">
+        <is>
+          <t>52.9%</t>
+        </is>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M170" s="2" t="inlineStr">
+        <is>
+          <t>26.0%</t>
+        </is>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P170" s="2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q170" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R170" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S170" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" customHeight="true" ht="20.0">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>20250321_190101_2</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>野生紅米(100g), 鯖魚(炸)(35g), 正櫻蝦(生)(38g), 日本花鱸((12月)(49g), 金女小番茄(103g), 鱖(72g)</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (718/760)</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (81.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (44.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (23.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (344/385)</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (1136/1470)</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (257/420)</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>1.58 (193/122)</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="inlineStr">
+        <is>
+          <t>45.5%</t>
+        </is>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+      <c r="M171" s="2" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P171" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q171" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R171" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S171" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" customHeight="true" ht="20.0">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>20250321_190101_3</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>野生紅米(100g), 鯖魚(炸)(35g), 正櫻蝦(生)(38g), 珊瑚菇(75g), 芥菜平均值(141g), 真烏賊平均值(43g)</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (666/760)</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (85.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (30.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (22.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (425/385)</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (1197/1470)</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (222/420)</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>1.62 (198/122)</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="inlineStr">
+        <is>
+          <t>51.1%</t>
+        </is>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>18.5%</t>
+        </is>
+      </c>
+      <c r="M172" s="2" t="inlineStr">
+        <is>
+          <t>30.4%</t>
+        </is>
+      </c>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P172" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="Q172" s="2" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R172" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S172" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" customHeight="true" ht="20.0">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>20250321_190735_1</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉2號)(110g), 雙帶鰺(34g), 雞蛋白(黃殼)(54g), 牛修清前胸肉(72g), 日本花鱸((3月)(28g), 旗魚腹肉(33g), 腰果(生)(25g), 大西洋鮭魚生魚片(31g)</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (812/760)</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (95.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>1.71 (61.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (20.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (325/385)</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (1135/1470)</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (239/420)</t>
+        </is>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (142/122)</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="inlineStr">
+        <is>
+          <t>47.1%</t>
+        </is>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>30.3%</t>
+        </is>
+      </c>
+      <c r="M173" s="2" t="inlineStr">
+        <is>
+          <t>22.6%</t>
+        </is>
+      </c>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="P173" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q173" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R173" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S173" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" customHeight="true" ht="20.0">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>20250321_190735_2</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>乾玉米粒(101g), 大管鞭蝦(25g), 斯氏長鰭烏魴(26g), 雙帶鰺(31g), 前鱗笛鯛(47g), 旗魚腹肉(47g), 藍圓鰺(25g), 土番鴨(51g), 去皮清肉平均值(74g), 迷你竹筍白菜(167g)</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (742/760)</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (79.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>2.38 (85.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (8.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (360/385)</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>1.22 (1787/1470)</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (275/420)</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>2.01 (246/122)</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="inlineStr">
+        <is>
+          <t>43.0%</t>
+        </is>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
+        <is>
+          <t>46.1%</t>
+        </is>
+      </c>
+      <c r="M174" s="2" t="inlineStr">
+        <is>
+          <t>10.8%</t>
+        </is>
+      </c>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P174" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="Q174" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R174" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S174" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" customHeight="true" ht="20.0">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>20250321_190735_3</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>米胚芽(148g), 大口逆鈎鰺(31g), 象牙鳳螺(26g), 斯氏長鰭烏魴(26g), 真牡蠣(66g), 蒲瓜(長形)(147g)</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (724/760)</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (86.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (48.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (20.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="inlineStr">
+        <is>
+          <t>0.31 (119/385)</t>
+        </is>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>1.73 (2539/1470)</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (262/420)</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>7.38 (904/122)</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="inlineStr">
+        <is>
+          <t>47.8%</t>
+        </is>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
+        <is>
+          <t>27.0%</t>
+        </is>
+      </c>
+      <c r="M175" s="2" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="P175" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q175" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R175" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S175" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S175"/>
+  <dimension ref="A1:S184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -16401,6 +16401,843 @@
         </is>
       </c>
     </row>
+    <row r="176" customHeight="true" ht="20.0">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>20250322_094159_1</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米(100g), 熟蓮藕(45g), 花生粉(40g), 小黃魚(含皮)(25g), 東方異腕蝦(41g), 虱目魚(含皮)(38g)</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (722/760)</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (91.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (39.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (21.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>0.24 (91/385)</t>
+        </is>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (973/1470)</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (264/420)</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>2.24 (275/122)</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="inlineStr">
+        <is>
+          <t>50.8%</t>
+        </is>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>21.9%</t>
+        </is>
+      </c>
+      <c r="M176" s="2" t="inlineStr">
+        <is>
+          <t>27.3%</t>
+        </is>
+      </c>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="P176" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q176" s="2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="R176" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S176" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" customHeight="true" ht="20.0">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>20250322_094159_2</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>糙秈米(100g), 花生粉(28g), 小黃魚(含皮)(25g), 東方異腕蝦(36g), 虱目魚(含皮)(38g)</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (700/760)</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (86.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (39.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (21.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>0.22 (86/385)</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (891/1470)</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (251/420)</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>2.22 (271/122)</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="inlineStr">
+        <is>
+          <t>49.6%</t>
+        </is>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
+        <is>
+          <t>22.3%</t>
+        </is>
+      </c>
+      <c r="M177" s="2" t="inlineStr">
+        <is>
+          <t>28.1%</t>
+        </is>
+      </c>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="P177" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q177" s="2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R177" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S177" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" customHeight="true" ht="20.0">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>20250322_094159_3</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>高筋麵粉(2021年取樣)(102g), 熟蓮藕(45g), 花生粉(40g), 小黃魚(含皮)(25g), 東方異腕蝦(41g), 虱目魚(含皮)(38g)</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (732/760)</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (91.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (46.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (20.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>0.24 (92/385)</t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (769/1470)</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (261/420)</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>1.43 (174/122)</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
+        <is>
+          <t>25.3%</t>
+        </is>
+      </c>
+      <c r="M178" s="2" t="inlineStr">
+        <is>
+          <t>24.6%</t>
+        </is>
+      </c>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="P178" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q178" s="2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="R178" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S178" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" customHeight="true" ht="20.0">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>20250322_094259_1</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>全麥麵粉(100g), 鯖魚(烤,150度,10分)(26g), 鯔魚精囊(25g), 鮟鱇魚肝(31g), 史氏紅諧魚(53g), 雞蛋黃平均值(28g), 大目鮪(33g), 旗魚肚(36g)</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (729/760)</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (74.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>1.59 (57.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (22.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="inlineStr">
+        <is>
+          <t>0.24 (93/385)</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>0.64 (937/1470)</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (264/420)</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (166/122)</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="inlineStr">
+        <is>
+          <t>40.6%</t>
+        </is>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>31.4%</t>
+        </is>
+      </c>
+      <c r="M179" s="2" t="inlineStr">
+        <is>
+          <t>28.0%</t>
+        </is>
+      </c>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="P179" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q179" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R179" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S179" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" customHeight="true" ht="20.0">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>20250322_094259_2</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>全麥麵粉(100g), 莫三比克口孵非鯽(34g), 白緣星鱠(41g), 鱗網帶鰆(含皮)(52g), 試交二號小番茄(126g), 雞排(土雞)(53g), 豆漿(無糖)(71g)</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (729/760)</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (82.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>1.48 (53.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (20.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="inlineStr">
+        <is>
+          <t>0.19 (74/385)</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (1392/1470)</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>0.35 (145/420)</t>
+        </is>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>1.49 (182/122)</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="inlineStr">
+        <is>
+          <t>45.4%</t>
+        </is>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>29.2%</t>
+        </is>
+      </c>
+      <c r="M180" s="2" t="inlineStr">
+        <is>
+          <t>25.3%</t>
+        </is>
+      </c>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P180" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q180" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R180" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S180" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" customHeight="true" ht="20.0">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>20250322_094259_3</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>全麥麵粉(100g), 莫三比克口孵非鯽(40g), 白緣星鱠(48g), 魟魚(50g), 史氏紅諧魚(55g), 花腹鯖(43g), 雞蛋黃(黃殼)(25g)</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (709/760)</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (73.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>2.01 (72.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (14.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="inlineStr">
+        <is>
+          <t>0.32 (123/385)</t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (1215/1470)</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (246/420)</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>1.43 (175/122)</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="inlineStr">
+        <is>
+          <t>41.3%</t>
+        </is>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>40.7%</t>
+        </is>
+      </c>
+      <c r="M181" s="2" t="inlineStr">
+        <is>
+          <t>18.0%</t>
+        </is>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="P181" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q181" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R181" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S181" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" customHeight="true" ht="20.0">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>20250322_134452_1</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉9號)(100g), 豬小腸(67g), 秋刀魚(57g), 大管鞭蝦(51g), 白毛木耳(53g), 豬腳筋(53g)</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (722/760)</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (86.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (44.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (21.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="inlineStr">
+        <is>
+          <t>0.13 (51/385)</t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>0.32 (471/1470)</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (215/420)</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (69/122)</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="inlineStr">
+        <is>
+          <t>48.5%</t>
+        </is>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>24.6%</t>
+        </is>
+      </c>
+      <c r="M182" s="2" t="inlineStr">
+        <is>
+          <t>26.9%</t>
+        </is>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="P182" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q182" s="2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="R182" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S182" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" customHeight="true" ht="20.0">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>20250322_134452_2</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>去筋麵粉(100g), 大管鞭蝦(28g), 海帶結(48g), 豬小腸(50g), 黃金聖女小番茄(145g), 白芝麻(熟)2022年取樣)(27g), 白毛木耳(90g)</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (713/760)</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (113.3/97.6)</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (20.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (20.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (169/385)</t>
+        </is>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (729/1470)</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (241/420)</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>1.30 (159/122)</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="inlineStr">
+        <is>
+          <t>63.0%</t>
+        </is>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>11.6%</t>
+        </is>
+      </c>
+      <c r="M183" s="2" t="inlineStr">
+        <is>
+          <t>25.4%</t>
+        </is>
+      </c>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P183" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q183" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R183" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S183" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" customHeight="true" ht="20.0">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>20250322_134452_3</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>去筋麵粉(100g), 豬小腸(67g), 秋刀魚(46g), 大管鞭蝦(38g), 白毛木耳(53g), 鴨翅(50g), 粉豆莢(71g)</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (748/760)</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (97.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (38.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (22.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="inlineStr">
+        <is>
+          <t>0.16 (60/385)</t>
+        </is>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>0.37 (544/1470)</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (216/420)</t>
+        </is>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (64/122)</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="inlineStr">
+        <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>20.5%</t>
+        </is>
+      </c>
+      <c r="M184" s="2" t="inlineStr">
+        <is>
+          <t>26.8%</t>
+        </is>
+      </c>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="P184" s="2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q184" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R184" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S184" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/meal_solutions.xlsx
+++ b/meal_solutions.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S184"/>
+  <dimension ref="A1:S226"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -17238,6 +17238,3912 @@
         </is>
       </c>
     </row>
+    <row r="185" customHeight="true" ht="20.0">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100223_1</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台農71號)(100g), 油菜心(108g), 本島萵苣(有機)(4月取樣)(150g), 鯖魚(炸)(27g), 山藥(青森)(31g), 大黃魚(26g), 日本馬頭魚(37g), 尼羅口孵非鯽(含皮)(26g), 斑帶石斑魚(35g)</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (730/760)</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (93.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (41.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (20.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="inlineStr">
+        <is>
+          <t>0.48 (186/385)</t>
+        </is>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (1807/1470)</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (150/420)</t>
+        </is>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (117/122)</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="inlineStr">
+        <is>
+          <t>51.8%</t>
+        </is>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>23.1%</t>
+        </is>
+      </c>
+      <c r="M185" s="2" t="inlineStr">
+        <is>
+          <t>25.1%</t>
+        </is>
+      </c>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="P185" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q185" s="2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="R185" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S185" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" customHeight="true" ht="20.0">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100223_2</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>秈米(台中在來2號)(106g), 山藥(青森)(38g), 豬後腳(51g), 白姑魚(26g), 礁膜(29g), 斑帶石斑魚(36g), 大文蛤(28g), 犬牙南極魚切片(41g)</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (724/760)</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (89.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (38.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (21.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>0.19 (71/385)</t>
+        </is>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (773/1470)</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (365/420)</t>
+        </is>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (130/122)</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="inlineStr">
+        <is>
+          <t>50.7%</t>
+        </is>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="M186" s="2" t="inlineStr">
+        <is>
+          <t>27.8%</t>
+        </is>
+      </c>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="P186" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q186" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R186" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S186" s="2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" customHeight="true" ht="20.0">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100223_3</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>發芽稉米平均值(100g), 里肌肉(肉雞)(74g), 豬後腳(73g), 鴨皮蛋(54g), 綠櫛瓜(146g)</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (725/760)</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (78.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>1.38 (49.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (22.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="inlineStr">
+        <is>
+          <t>0.22 (84/385)</t>
+        </is>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (1206/1470)</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (404/420)</t>
+        </is>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (166/122)</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="inlineStr">
+        <is>
+          <t>43.7%</t>
+        </is>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
+        <is>
+          <t>27.8%</t>
+        </is>
+      </c>
+      <c r="M187" s="2" t="inlineStr">
+        <is>
+          <t>28.5%</t>
+        </is>
+      </c>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P187" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q187" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R187" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S187" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" customHeight="true" ht="20.0">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100843_1</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉8號)(102g), 雞滷蛋(市售)(27g), 鵪鶉水煮蛋(27g), 去骨牛小排(50g), 清腿(土雞)(52g), 南美刺參(25g), 牛肚平均值(60g)</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (727/760)</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (82.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (44.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (22.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="inlineStr">
+        <is>
+          <t>0.23 (87/385)</t>
+        </is>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>0.26 (387/1470)</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (357/420)</t>
+        </is>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>0.46 (56/122)</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="inlineStr">
+        <is>
+          <t>46.4%</t>
+        </is>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
+        <is>
+          <t>25.1%</t>
+        </is>
+      </c>
+      <c r="M188" s="2" t="inlineStr">
+        <is>
+          <t>28.5%</t>
+        </is>
+      </c>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P188" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q188" s="2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R188" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S188" s="2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" customHeight="true" ht="20.0">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100843_2</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉8號)(102g), 假人蔘(100g), 雞滷蛋(市售)(27g), 鵪鶉水煮蛋(27g), 去骨牛小排(50g), 清腿(土雞)(52g), 銀魚(25g)</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (733/760)</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (85.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (39.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (24.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="inlineStr">
+        <is>
+          <t>0.48 (185/385)</t>
+        </is>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (813/1470)</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (316/420)</t>
+        </is>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>1.79 (219/122)</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="inlineStr">
+        <is>
+          <t>47.2%</t>
+        </is>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
+        <is>
+          <t>21.8%</t>
+        </is>
+      </c>
+      <c r="M189" s="2" t="inlineStr">
+        <is>
+          <t>31.0%</t>
+        </is>
+      </c>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P189" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="Q189" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R189" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S189" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" customHeight="true" ht="20.0">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100843_3</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>稉米(高雄139號)(2021年取樣)(100g), 洋菇(51g), 假人蔘(101g), 紅面番鴨蛋(29g), 馬拉巴笛鯛(32g), 印度鐮齒魚(40g), 豬軟骨(64g), 紫色甘藍(154g)</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (757/760)</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (92.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (35.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (26.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>0.46 (175/385)</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (1312/1470)</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (250/420)</t>
+        </is>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>1.61 (197/122)</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="inlineStr">
+        <is>
+          <t>49.2%</t>
+        </is>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>18.9%</t>
+        </is>
+      </c>
+      <c r="M190" s="2" t="inlineStr">
+        <is>
+          <t>31.9%</t>
+        </is>
+      </c>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="P190" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q190" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R190" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S190" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" customHeight="true" ht="20.0">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100957_1</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>去筋麵粉(100g), 鵝肉(83g), 黃豆粉(50g), 蠔菇(59g), 圓鱈魚鰓肉(42g), 海帶絲(50g)</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (792/760)</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (111.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (41.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (22.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>0.32 (124/385)</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (1313/1470)</t>
+        </is>
+      </c>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (265/420)</t>
+        </is>
+      </c>
+      <c r="J191" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (140/122)</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="inlineStr">
+        <is>
+          <t>55.2%</t>
+        </is>
+      </c>
+      <c r="L191" s="2" t="inlineStr">
+        <is>
+          <t>20.3%</t>
+        </is>
+      </c>
+      <c r="M191" s="2" t="inlineStr">
+        <is>
+          <t>24.5%</t>
+        </is>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="P191" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q191" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R191" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S191" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" customHeight="true" ht="20.0">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100957_2</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>去筋麵粉(100g), 蒸蛋(市售)(45g), 台灣鯛魚湯(水煮)(46g), 試交二號小番茄(115g), 青江菜(土植)(10月取樣)(115g), 二節翅(肉雞)(66g), 雞蛋黃平均值(34g), 牛肚切片(瘤胃)(50g)</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (729/760)</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (105.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (29.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (21.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="inlineStr">
+        <is>
+          <t>0.76 (293/385)</t>
+        </is>
+      </c>
+      <c r="H192" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (1021/1470)</t>
+        </is>
+      </c>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (338/420)</t>
+        </is>
+      </c>
+      <c r="J192" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (74/122)</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="inlineStr">
+        <is>
+          <t>57.4%</t>
+        </is>
+      </c>
+      <c r="L192" s="2" t="inlineStr">
+        <is>
+          <t>16.1%</t>
+        </is>
+      </c>
+      <c r="M192" s="2" t="inlineStr">
+        <is>
+          <t>26.5%</t>
+        </is>
+      </c>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="P192" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q192" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R192" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S192" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" customHeight="true" ht="20.0">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>20250324_100957_3</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>糙稉米(台稉9號)(100g), 希氏姬鯛(35g), 黃豆粉(63g), 蠔菇(65g), 圓鱈魚鰓肉(42g), 海帶絲(68g)</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (715/760)</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (105.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>1.29 (46.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (14.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>0.38 (145/385)</t>
+        </is>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (1675/1470)</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (223/420)</t>
+        </is>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>2.15 (263/122)</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="inlineStr">
+        <is>
+          <t>57.4%</t>
+        </is>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
+        <is>
+          <t>25.2%</t>
+        </is>
+      </c>
+      <c r="M193" s="2" t="inlineStr">
+        <is>
+          <t>17.4%</t>
+        </is>
+      </c>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="P193" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q193" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R193" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S193" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" customHeight="true" ht="20.0">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>20250324_112516_1</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>白饭(100g), 豆浆(无糖)(57g), 马铃薯粉(63g), 结球莴苣(100g), 黄番茄(104g), 本岛莴苣(土植)(3月取样)(101g), 舞菇(56g), 牛后腿腱子心(50g), 马齿苋(102g), 熟猪肚(53g), 台湾鲷鱼片(生)(29g), 鹌鹑水煮蛋(40g)</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (771/760)</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (115.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (39.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (16.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (208/385)</t>
+        </is>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (1701/1470)</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (241/420)</t>
+        </is>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>1.35 (164/122)</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="inlineStr">
+        <is>
+          <t>59.9%</t>
+        </is>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>20.5%</t>
+        </is>
+      </c>
+      <c r="M194" s="2" t="inlineStr">
+        <is>
+          <t>19.6%</t>
+        </is>
+      </c>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P194" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q194" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R194" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S194" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" customHeight="true" ht="20.0">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>20250324_112516_2</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>白饭(100g), 豆浆(无糖)(52g), 马铃薯粉(58g), 结球莴苣(100g), 黄番茄(104g), 本岛莴苣(土植)(3月取样)(101g), 舞菇(56g), 牛后腿腱子心(50g), 马齿苋(102g), 熟猪肚(53g), 台湾鲷鱼片(生)(29g), 鹌鹑水煮蛋(32g)</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (745/760)</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>1.16 (113.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (37.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (15.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>0.49 (189/385)</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (1532/1470)</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (227/420)</t>
+        </is>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>1.28 (157/122)</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="inlineStr">
+        <is>
+          <t>61.2%</t>
+        </is>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
+        <is>
+          <t>20.4%</t>
+        </is>
+      </c>
+      <c r="M195" s="2" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="P195" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q195" s="2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R195" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S195" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" customHeight="true" ht="20.0">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>20250324_112516_3</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>玉米胚芽(100g), 豆浆(无糖)(66g), 银耳(62g), 山药(白皮削)(25g), 须赤虾(29g), 海鲡(50g), 舞菇(56g), 鸡蛋黄(黄壳)(36g), 去骨牛小排(50g)</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (769/760)</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (94.6/97.6)</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (41.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (24.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="inlineStr">
+        <is>
+          <t>0.31 (120/385)</t>
+        </is>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (1155/1470)</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (222/420)</t>
+        </is>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>1.27 (155/122)</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="inlineStr">
+        <is>
+          <t>49.6%</t>
+        </is>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
+        <is>
+          <t>21.7%</t>
+        </is>
+      </c>
+      <c r="M196" s="2" t="inlineStr">
+        <is>
+          <t>28.7%</t>
+        </is>
+      </c>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="P196" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q196" s="2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="R196" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S196" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" customHeight="true" ht="20.0">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>20250324_113204_1</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>玉米粉(100g), 银鲳(含皮)(25g), 鸭蛋白(27g), 羽衣甘蓝(有机)(100g), 白马头鱼(37g), 斑鱵(34g), 牛纽约客火锅片(77g)</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (714/760)</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (94.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (40.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (18.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>1.36 (523/385)</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (964/1470)</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (272/420)</t>
+        </is>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (114/122)</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="inlineStr">
+        <is>
+          <t>53.7%</t>
+        </is>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
+        <is>
+          <t>22.8%</t>
+        </is>
+      </c>
+      <c r="M197" s="2" t="inlineStr">
+        <is>
+          <t>23.5%</t>
+        </is>
+      </c>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P197" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="Q197" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R197" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S197" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" customHeight="true" ht="20.0">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>20250324_113204_2</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>糙稉米平均值(100g), 鲍鱼(46g), 鸡蛋黄(白壳)(48g), 黑棘鲷(含皮)(41g), 银鲳(含皮)(32g)</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (701/760)</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (87.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (38.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (22.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>0.25 (97/385)</t>
+        </is>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (644/1470)</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>0.60 (253/420)</t>
+        </is>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>1.57 (191/122)</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="inlineStr">
+        <is>
+          <t>49.5%</t>
+        </is>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="M198" s="2" t="inlineStr">
+        <is>
+          <t>29.0%</t>
+        </is>
+      </c>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P198" s="2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q198" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R198" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S198" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" customHeight="true" ht="20.0">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>20250324_113204_3</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>玉米粉(100g), 澳洲胡萝卜(细长型)(100g), 横纹九刺鮨(39g), 青星九刺鮨鱼片(45g), 松茸(75g), 青江菜(有机)(7月取样)(153g), 鸡蛋黄(白壳)(51g), 冷冻甘蓝(186g)</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (747/760)</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>1.17 (114.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (35.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>0.66 (16.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (414/385)</t>
+        </is>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (1519/1470)</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (274/420)</t>
+        </is>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (108/122)</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="inlineStr">
+        <is>
+          <t>61.0%</t>
+        </is>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
+      <c r="M199" s="2" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="P199" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q199" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R199" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S199" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" customHeight="true" ht="20.0">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>20250324_113534_1</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台中189号)(100g), 斑鱵(34g), 魩仔鱼(25g), 黑乌参(54g), 鲭鱼(烤,210度,10分)(33g), 清腿(肉鸡)(50g), 高山大豌豆荚(50g)</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (686/760)</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (83.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (37.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (21.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>0.32 (122/385)</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>0.39 (569/1470)</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (263/420)</t>
+        </is>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>0.73 (89/122)</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="inlineStr">
+        <is>
+          <t>49.5%</t>
+        </is>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>22.4%</t>
+        </is>
+      </c>
+      <c r="M200" s="2" t="inlineStr">
+        <is>
+          <t>28.1%</t>
+        </is>
+      </c>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="P200" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q200" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R200" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S200" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" customHeight="true" ht="20.0">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>20250324_113534_2</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>籼米粉(100g), 斑鱵(42g), 茶叶蛋黄(浸泡隔夜)(45g), 滑菇(50g), 黑乌参(69g), 乌骨鸡蛋白(31g), 鲍鱼菇(69g), 猪后腿外腱肉(50g)</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (711/760)</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (90.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (39.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (20.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>0.35 (134/385)</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (763/1470)</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (287/420)</t>
+        </is>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (82/122)</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="inlineStr">
+        <is>
+          <t>51.5%</t>
+        </is>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>22.6%</t>
+        </is>
+      </c>
+      <c r="M201" s="2" t="inlineStr">
+        <is>
+          <t>25.9%</t>
+        </is>
+      </c>
+      <c r="N201" s="2"/>
+      <c r="O201" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="P201" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q201" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R201" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S201" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" customHeight="true" ht="20.0">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>20250324_113534_3</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台中189号)(100g), 斑鱵(54g), 茶叶蛋黄(浸泡隔夜)(45g), 滑菇(50g), 乌骨鸡蛋白(31g), 肉鸡(53g), 山药平均值(34g)</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (756/760)</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (89.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>1.12 (40.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (25.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="inlineStr">
+        <is>
+          <t>0.24 (92/385)</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (823/1470)</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (236/420)</t>
+        </is>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>0.44 (54/122)</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="inlineStr">
+        <is>
+          <t>48.1%</t>
+        </is>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>21.6%</t>
+        </is>
+      </c>
+      <c r="M202" s="2" t="inlineStr">
+        <is>
+          <t>30.3%</t>
+        </is>
+      </c>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P202" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q202" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="R202" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S202" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" customHeight="true" ht="20.0">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>20250324_114748_1</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>糙籼米浆(100g), 猪皮(50g), 猪肩胛排(2021年取样)(50g), 樱桃鸭胸肉片(52g), 包心芥菜(121g), 野苦瓜(108g), 青江菜(土植)(10月取样)(113g), 蕺菜(100g), 菱角(生)(40g)</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (703/760)</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>0.42 (40.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (38.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>1.78 (44.7/25.1)</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (348/385)</t>
+        </is>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>1.32 (1947/1470)</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="inlineStr">
+        <is>
+          <t>0.53 (220/420)</t>
+        </is>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>1.53 (188/122)</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="inlineStr">
+        <is>
+          <t>22.6%</t>
+        </is>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>21.4%</t>
+        </is>
+      </c>
+      <c r="M203" s="2" t="inlineStr">
+        <is>
+          <t>56.0%</t>
+        </is>
+      </c>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="P203" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="Q203" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R203" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S203" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" customHeight="true" ht="20.0">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>20250324_114748_2</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>玉米粉(100g), 芥菜平均值(125g), 紫洋葱(115g), 土鸡皮蛋(30g), 鹌鹑铁蛋(34g), 带骨去皮对切胸(肉鸡)(90g)</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (709/760)</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (108.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (36.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>0.52 (13.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>0.50 (191/385)</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (956/1470)</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="inlineStr">
+        <is>
+          <t>0.75 (313/420)</t>
+        </is>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (68/122)</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>62.2%</t>
+        </is>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>21.1%</t>
+        </is>
+      </c>
+      <c r="M204" s="2" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="P204" s="2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="Q204" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R204" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S204" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" customHeight="true" ht="20.0">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>20250324_114748_3</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>糙薏仁(133g), 芥菜平均值(116g), 樱桃萝卜(149g), 番鸭(77g)</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (728/760)</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (95.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (34.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (22.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>0.37 (142/385)</t>
+        </is>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (1534/1470)</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>0.27 (115/420)</t>
+        </is>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>2.87 (351/122)</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="inlineStr">
+        <is>
+          <t>52.4%</t>
+        </is>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>19.2%</t>
+        </is>
+      </c>
+      <c r="M205" s="2" t="inlineStr">
+        <is>
+          <t>28.3%</t>
+        </is>
+      </c>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="P205" s="2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="Q205" s="2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R205" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S205" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" customHeight="true" ht="20.0">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115020_1</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉8号)(104g), 肉鸡(60g), 小麦苗(100g), 猪后腿肉(52g), 鸭肠(54g), 秀珍菇(66g), 本岛莴苣(有机)(1月取样)(100g), 海带卷(26g)</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (703/760)</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (94.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>1.18 (42.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>0.68 (17.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>0.38 (145/385)</t>
+        </is>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (1418/1470)</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (228/420)</t>
+        </is>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (108/122)</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="inlineStr">
+        <is>
+          <t>53.7%</t>
+        </is>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>24.3%</t>
+        </is>
+      </c>
+      <c r="M206" s="2" t="inlineStr">
+        <is>
+          <t>22.0%</t>
+        </is>
+      </c>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="P206" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="Q206" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R206" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S206" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" customHeight="true" ht="20.0">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115020_2</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉8号)(104g), 海带卷(25g), 鸭肠(51g), 本岛莴苣(有机)(7月取样)(103g), 猪颈肉(71g), 猪后腿瘦肉(50g)</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (700/760)</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (86.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>1.08 (38.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (21.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="inlineStr">
+        <is>
+          <t>0.24 (93/385)</t>
+        </is>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>0.45 (667/1470)</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="inlineStr">
+        <is>
+          <t>0.45 (188/420)</t>
+        </is>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>0.56 (68/122)</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="inlineStr">
+        <is>
+          <t>50.1%</t>
+        </is>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>22.5%</t>
+        </is>
+      </c>
+      <c r="M207" s="2" t="inlineStr">
+        <is>
+          <t>27.4%</t>
+        </is>
+      </c>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P207" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q207" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R207" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S207" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" customHeight="true" ht="20.0">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115020_3</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台稉8号)(104g), 鸡蛋白(黄壳)(49g), 猪颈肉(71g), 猪后腿瘦肉(50g), 海带卷(25g)</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (691/760)</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (84.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>1.05 (37.8/36.0)</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (21.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="inlineStr">
+        <is>
+          <t>0.07 (28/385)</t>
+        </is>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>0.36 (527/1470)</t>
+        </is>
+      </c>
+      <c r="I208" s="2" t="inlineStr">
+        <is>
+          <t>0.61 (254/420)</t>
+        </is>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>0.43 (52/122)</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="inlineStr">
+        <is>
+          <t>49.5%</t>
+        </is>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>22.2%</t>
+        </is>
+      </c>
+      <c r="M208" s="2" t="inlineStr">
+        <is>
+          <t>28.3%</t>
+        </is>
+      </c>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="P208" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q208" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R208" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S208" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" customHeight="true" ht="20.0">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115049_1</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>杂粮中筋面粉(102g), 猪软骨(51g), 翅腿(肉鸡)(76g), 红虾仁(27g)</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (730/760)</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>0.77 (74.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr">
+        <is>
+          <t>1.10 (39.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (30.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="inlineStr">
+        <is>
+          <t>0.15 (56/385)</t>
+        </is>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>0.34 (505/1470)</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>0.74 (309/420)</t>
+        </is>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (85/122)</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="inlineStr">
+        <is>
+          <t>41.1%</t>
+        </is>
+      </c>
+      <c r="L209" s="2" t="inlineStr">
+        <is>
+          <t>21.8%</t>
+        </is>
+      </c>
+      <c r="M209" s="2" t="inlineStr">
+        <is>
+          <t>37.1%</t>
+        </is>
+      </c>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P209" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q209" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R209" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S209" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" customHeight="true" ht="20.0">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115049_2</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台中189号)(104g), 鹌鹑蛋(28g), 猪尾(50g), 熟猪肚(50g), 猪白管(65g)</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (719/760)</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (86.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (39.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (24.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>0.13 (51/385)</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>0.13 (192/1470)</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>0.39 (162/420)</t>
+        </is>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>0.25 (31/122)</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="inlineStr">
+        <is>
+          <t>47.9%</t>
+        </is>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>21.8%</t>
+        </is>
+      </c>
+      <c r="M210" s="2" t="inlineStr">
+        <is>
+          <t>30.3%</t>
+        </is>
+      </c>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P210" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q210" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R210" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S210" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" customHeight="true" ht="20.0">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115049_3</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>稉米(台中189号)(104g), 翅腿(肉鸡)(68g), 冷冻胡萝卜(100g), 猪小肠(65g)</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (687/760)</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>0.88 (85.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (33.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (22.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="inlineStr">
+        <is>
+          <t>0.14 (53/385)</t>
+        </is>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>0.30 (434/1470)</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="inlineStr">
+        <is>
+          <t>0.37 (154/420)</t>
+        </is>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>0.40 (48/122)</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="inlineStr">
+        <is>
+          <t>50.4%</t>
+        </is>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="M211" s="2" t="inlineStr">
+        <is>
+          <t>29.8%</t>
+        </is>
+      </c>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P211" s="2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q211" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R211" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S211" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" customHeight="true" ht="20.0">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115242_1</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>糙稉米(台稉9号)(100g), 嫩姜(100g), 牛肚(瘤胃)(52g), 初卵鸡蛋(30g), 菊花南瓜(100g), 荷包蛋(加油1小匙)(29g), 鸡蛋(黄壳)(38g), 鸡蛋黄平均值(35g)</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (738/760)</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (101.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (32.6/36.0)</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (23.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="inlineStr">
+        <is>
+          <t>0.42 (160/385)</t>
+        </is>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (1205/1470)</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (225/420)</t>
+        </is>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>1.30 (159/122)</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="inlineStr">
+        <is>
+          <t>54.4%</t>
+        </is>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>17.6%</t>
+        </is>
+      </c>
+      <c r="M212" s="2" t="inlineStr">
+        <is>
+          <t>28.0%</t>
+        </is>
+      </c>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P212" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q212" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R212" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S212" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" customHeight="true" ht="20.0">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115242_2</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>稉米(高雄139号)(100g), 牛肋条(2021年取样)(62g), 鸡蛋(黄壳)(43g), 鸭胗(50g), 日本花鲈(含皮)(34g)</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (722/760)</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>0.82 (80.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (38.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>1.06 (26.5/25.1)</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="inlineStr">
+        <is>
+          <t>0.07 (28/385)</t>
+        </is>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>0.42 (623/1470)</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="inlineStr">
+        <is>
+          <t>0.35 (147/420)</t>
+        </is>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (72/122)</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="inlineStr">
+        <is>
+          <t>45.0%</t>
+        </is>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>21.4%</t>
+        </is>
+      </c>
+      <c r="M213" s="2" t="inlineStr">
+        <is>
+          <t>33.6%</t>
+        </is>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P213" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q213" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R213" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S213" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" customHeight="true" ht="20.0">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>20250324_115242_3</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>即食燕麦片(108g), 初卵鸡蛋(43g), 红葱头(143g), 牛肚(瘤胃)(60g), 菊花南瓜(120g)</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (722/760)</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>1.20 (117.4/97.6)</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (32.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (15.6/25.1)</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="inlineStr">
+        <is>
+          <t>0.32 (122/385)</t>
+        </is>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (1484/1470)</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="inlineStr">
+        <is>
+          <t>0.34 (144/420)</t>
+        </is>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>1.64 (201/122)</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="inlineStr">
+        <is>
+          <t>63.6%</t>
+        </is>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>17.4%</t>
+        </is>
+      </c>
+      <c r="M214" s="2" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P214" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="Q214" s="2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R214" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S214" s="2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" customHeight="true" ht="20.0">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>20250324_121522_1</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>荞麦(甜荞)(100g), 豌豆仁(51g), 猪颊肉(2022年取样)(51g), 杏香菇(69g), 鸡卤蛋黄(浸泡隔夜)(25g)</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (710/760)</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (97.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>0.98 (35.1/36.0)</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>0.79 (20.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="inlineStr">
+        <is>
+          <t>0.21 (79/385)</t>
+        </is>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (1017/1470)</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="inlineStr">
+        <is>
+          <t>0.81 (338/420)</t>
+        </is>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>2.12 (259/122)</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="inlineStr">
+        <is>
+          <t>54.9%</t>
+        </is>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>19.8%</t>
+        </is>
+      </c>
+      <c r="M215" s="2" t="inlineStr">
+        <is>
+          <t>25.3%</t>
+        </is>
+      </c>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="P215" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q215" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R215" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S215" s="2" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" customHeight="true" ht="20.0">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>20250324_121522_2</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>胚芽稉米平均值(101g), 豌豆仁(51g), 猪颊肉(2022年取样)(51g), 杏香菇(61g), 白姑鱼(37g), 红面番鸭蛋(26g), 鸡卤蛋黄(浸泡隔夜)(28g)</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (751/760)</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (93.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (41.2/36.0)</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (23.0/25.1)</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="inlineStr">
+        <is>
+          <t>0.25 (97/385)</t>
+        </is>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>0.58 (852/1470)</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="inlineStr">
+        <is>
+          <t>0.96 (403/420)</t>
+        </is>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (122/122)</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="inlineStr">
+        <is>
+          <t>50.3%</t>
+        </is>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>22.0%</t>
+        </is>
+      </c>
+      <c r="M216" s="2" t="inlineStr">
+        <is>
+          <t>27.7%</t>
+        </is>
+      </c>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="P216" s="2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q216" s="2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="R216" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S216" s="2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" customHeight="true" ht="20.0">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>20250324_121522_3</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>糙籼米(100g), 豌豆仁(51g), 猪颊肉(2022年取样)(51g), 红面番鸭蛋(26g), 鸡卤蛋黄(浸泡隔夜)(34g)</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>0.90 (683/760)</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>0.89 (86.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>0.86 (31.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>0.92 (23.2/25.1)</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
+          <t>0.23 (88/385)</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>0.51 (744/1470)</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (355/420)</t>
+        </is>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>1.46 (179/122)</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="inlineStr">
+        <is>
+          <t>51.1%</t>
+        </is>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>18.2%</t>
+        </is>
+      </c>
+      <c r="M217" s="2" t="inlineStr">
+        <is>
+          <t>30.7%</t>
+        </is>
+      </c>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P217" s="2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="Q217" s="2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R217" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S217" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" customHeight="true" ht="20.0">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122410_1</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>糙米粉(100g), 猪带皮腹脇肉(51g), 黄金菾菜(102g), 薄荷(100g), 山药(中国长品)(35g), 斑鳍飞鱼(61g)</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (738/760)</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>1.00 (97.2/97.6)</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>1.07 (38.5/36.0)</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (21.4/25.1)</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (256/385)</t>
+        </is>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>1.25 (1830/1470)</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="inlineStr">
+        <is>
+          <t>0.39 (163/420)</t>
+        </is>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>2.29 (280/122)</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="inlineStr">
+        <is>
+          <t>52.9%</t>
+        </is>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>20.9%</t>
+        </is>
+      </c>
+      <c r="M218" s="2" t="inlineStr">
+        <is>
+          <t>26.2%</t>
+        </is>
+      </c>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="P218" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q218" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R218" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S218" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" customHeight="true" ht="20.0">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122410_2</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>小麦(102g), 猪带皮腹脇肉(51g), 鸡心(肉鸡)(2021年取样)(52g), 鸡腿菇(69g)</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>0.94 (715/760)</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (78.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (32.7/36.0)</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>1.19 (29.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="inlineStr">
+        <is>
+          <t>0.07 (27/385)</t>
+        </is>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>0.70 (1033/1470)</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="inlineStr">
+        <is>
+          <t>0.23 (95/420)</t>
+        </is>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>1.37 (168/122)</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="inlineStr">
+        <is>
+          <t>43.9%</t>
+        </is>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="M219" s="2" t="inlineStr">
+        <is>
+          <t>37.8%</t>
+        </is>
+      </c>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P219" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q219" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="R219" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S219" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" customHeight="true" ht="20.0">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122410_3</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>小麦(102g), 芹菜平均值(100g), 鸡蛋(高维生素A&amp;E)(45g), 香菇(小)(69g), 猪带皮腹脇肉(51g), 鸡心(肉鸡)(2021年取样)(52g), 鸡腿菇(60g)</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>1.04 (787/760)</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>0.85 (82.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (39.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>1.31 (32.9/25.1)</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="inlineStr">
+        <is>
+          <t>0.34 (132/385)</t>
+        </is>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (1454/1470)</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="inlineStr">
+        <is>
+          <t>0.54 (226/420)</t>
+        </is>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>1.58 (193/122)</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="inlineStr">
+        <is>
+          <t>42.2%</t>
+        </is>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="M220" s="2" t="inlineStr">
+        <is>
+          <t>37.8%</t>
+        </is>
+      </c>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P220" s="2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q220" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R220" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S220" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" customHeight="true" ht="20.0">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122548_1</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>白饭(143g), 牛五花肉火锅片(51g), 黄金菾菜(101g), 奶油莴苣(日本种)(100g), 蒸蛋(市售)(47g), 嫩茎莴苣(100g), 白毛木耳(65g), 鹊豆荚(50g), 二节翅平均值(52g)</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (708/760)</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>0.80 (78.1/97.6)</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>0.84 (30.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>1.24 (31.1/25.1)</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="inlineStr">
+        <is>
+          <t>0.41 (159/385)</t>
+        </is>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>1.01 (1484/1470)</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="inlineStr">
+        <is>
+          <t>0.78 (325/420)</t>
+        </is>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (133/122)</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="inlineStr">
+        <is>
+          <t>43.8%</t>
+        </is>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>16.9%</t>
+        </is>
+      </c>
+      <c r="M221" s="2" t="inlineStr">
+        <is>
+          <t>39.3%</t>
+        </is>
+      </c>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P221" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q221" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R221" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S221" s="2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" customHeight="true" ht="20.0">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122548_2</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>白饭(143g), 牛五花肉火锅片(51g), 黄金菾菜(101g), 奶油莴苣(日本种)(100g), 蒸蛋(市售)(47g), 嫩茎莴苣(100g), 白毛木耳(65g), 鹊豆荚(50g), 海带茸(43g), 大西洋鲑鱼切片(中段)(50g)</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (690/760)</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>0.83 (80.9/97.6)</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>0.87 (31.4/36.0)</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (27.3/25.1)</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (227/385)</t>
+        </is>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>1.09 (1599/1470)</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (391/420)</t>
+        </is>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>1.32 (161/122)</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="inlineStr">
+        <is>
+          <t>46.5%</t>
+        </is>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>18.1%</t>
+        </is>
+      </c>
+      <c r="M222" s="2" t="inlineStr">
+        <is>
+          <t>35.4%</t>
+        </is>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P222" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q222" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="R222" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S222" s="2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" customHeight="true" ht="20.0">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122548_3</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>冷冻玉米粒(100g), 猪颈肉(78g), 猪绞肉平均值(57g), 海带茸(31g), 圣女小番茄(117g), 豌豆仁(67g), 嫩茎莴苣(100g), 香芋冬瓜(100g), 鲍鱼(50g)</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (706/760)</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>0.59 (57.8/97.6)</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>1.23 (44.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>1.42 (35.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="inlineStr">
+        <is>
+          <t>0.40 (153/385)</t>
+        </is>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>1.15 (1683/1470)</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>0.65 (274/420)</t>
+        </is>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>1.62 (198/122)</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="inlineStr">
+        <is>
+          <t>31.6%</t>
+        </is>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>24.3%</t>
+        </is>
+      </c>
+      <c r="M223" s="2" t="inlineStr">
+        <is>
+          <t>44.1%</t>
+        </is>
+      </c>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P223" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q223" s="2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R223" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S223" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" customHeight="true" ht="20.0">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122731_1</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>去筋面粉(100g), 金针菇(52g), 条纹狼鲈(50g), 清腿平均值(78g), 鞍带石斑鱼片(63g), 金针菜(100g)</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>0.93 (708/760)</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>0.99 (97.0/97.6)</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>1.14 (41.0/36.0)</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>0.63 (15.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="inlineStr">
+        <is>
+          <t>0.13 (48/385)</t>
+        </is>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>0.69 (1009/1470)</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (231/420)</t>
+        </is>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>0.57 (69/122)</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="inlineStr">
+        <is>
+          <t>55.8%</t>
+        </is>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>23.6%</t>
+        </is>
+      </c>
+      <c r="M224" s="2" t="inlineStr">
+        <is>
+          <t>20.5%</t>
+        </is>
+      </c>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="P224" s="2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q224" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R224" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S224" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" customHeight="true" ht="20.0">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122731_2</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>玉米粉(100g), 条纹狼鲈(50g), 带壳花生(生)(62g), 鸡肝(肉鸡)(70g), 樱桃萝卜(116g)</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (737/760)</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>1.03 (100.5/97.6)</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (34.3/36.0)</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>0.91 (22.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="inlineStr">
+        <is>
+          <t>0.17 (65/385)</t>
+        </is>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>0.62 (913/1470)</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>0.39 (163/420)</t>
+        </is>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>0.95 (116/122)</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="inlineStr">
+        <is>
+          <t>54.0%</t>
+        </is>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>18.4%</t>
+        </is>
+      </c>
+      <c r="M225" s="2" t="inlineStr">
+        <is>
+          <t>27.6%</t>
+        </is>
+      </c>
+      <c r="N225" s="2"/>
+      <c r="O225" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P225" s="2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q225" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R225" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S225" s="2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" customHeight="true" ht="20.0">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>20250324_122731_3</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>稉型糯米(100g), 干木耳(红耳仔)(50g), 绿芦笋(短型)(150g), 棒棒腿(土鸡)(85g), 鸡蛋(高次亚麻油酸)(43g)</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>0.97 (736/760)</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>1.27 (123.7/97.6)</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>1.11 (39.9/36.0)</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>0.39 (9.8/25.1)</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="inlineStr">
+        <is>
+          <t>0.27 (105/385)</t>
+        </is>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>0.67 (990/1470)</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="inlineStr">
+        <is>
+          <t>0.55 (232/420)</t>
+        </is>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>1.13 (138/122)</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="inlineStr">
+        <is>
+          <t>66.6%</t>
+        </is>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>21.5%</t>
+        </is>
+      </c>
+      <c r="M226" s="2" t="inlineStr">
+        <is>
+          <t>11.9%</t>
+        </is>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P226" s="2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q226" s="2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R226" s="2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="S226" s="2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
